--- a/dados/Estatais_rev_com_pivots.xlsx
+++ b/dados/Estatais_rev_com_pivots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.pereira\Documents\GitHub\estatais-estados\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE3BA3B-E03A-436B-B4E5-1BFF583F002D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C958B-F87E-4D02-BF9D-63D0346A3690}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{6676EBA9-1B60-4743-AD0B-38828D275A1F}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{6676EBA9-1B60-4743-AD0B-38828D275A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot_rentab" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId14"/>
     <pivotCache cacheId="1" r:id="rId15"/>
-    <pivotCache cacheId="9" r:id="rId16"/>
+    <pivotCache cacheId="14" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1787,16 +1787,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="4" builtinId="3"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1853,6 +1844,12 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -38419,7 +38416,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tiago Maranhao Barreto Pereira" refreshedDate="43686.712761689814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="258" xr:uid="{749B9430-0E59-4156-B72B-D052DD1AC4DB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tiago Maranhao Barreto Pereira" refreshedDate="43689.720226967591" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="258" xr:uid="{749B9430-0E59-4156-B72B-D052DD1AC4DB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N259" sheet="PL"/>
   </cacheSource>
@@ -38750,68 +38747,10 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="958888000"/>
     </cacheField>
     <cacheField name="Reforço de Capital" numFmtId="43">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="5000000000" count="57">
-        <m/>
-        <n v="600000"/>
-        <n v="135895601.53999999"/>
-        <n v="7000000"/>
-        <n v="97240040.4572943"/>
-        <n v="0"/>
-        <n v="174514100.63"/>
-        <n v="25620.11"/>
-        <n v="31939919.82"/>
-        <n v="102887047.20999999"/>
-        <n v="140420000"/>
-        <n v="120266"/>
-        <n v="292463"/>
-        <n v="2650000"/>
-        <n v="487363"/>
-        <n v="26018649"/>
-        <n v="20000000"/>
-        <n v="350523"/>
-        <n v="277125"/>
-        <n v="25097423.039999999"/>
-        <n v="367709020.64999998"/>
-        <n v="3833474.74"/>
-        <n v="20312409.829999998"/>
-        <n v="60960783.700000003"/>
-        <n v="177692"/>
-        <n v="954440"/>
-        <n v="150117300.06"/>
-        <n v="20453416"/>
-        <s v="-"/>
-        <n v="513906733.42000002"/>
-        <n v="3170000"/>
-        <n v="2362872.48"/>
-        <n v="2450000"/>
-        <n v="8000000"/>
-        <n v="122887545"/>
-        <n v="78409000"/>
-        <n v="12160.38"/>
-        <n v="9975363.9799999986"/>
-        <n v="170000"/>
-        <n v="1000000"/>
-        <n v="4854000"/>
-        <n v="7293811.54"/>
-        <n v="866345.6"/>
-        <n v="11447648"/>
-        <n v="407000"/>
-        <n v="51000"/>
-        <n v="865656000"/>
-        <n v="5000000000"/>
-        <n v="10424000"/>
-        <n v="2055429000"/>
-        <n v="347000000"/>
-        <n v="186488000"/>
-        <n v="611250000"/>
-        <n v="8137000"/>
-        <n v="65128000"/>
-        <n v="65822000"/>
-        <n v="185000"/>
-      </sharedItems>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="5000000000"/>
     </cacheField>
     <cacheField name="Resultado para o Estado Acionista" numFmtId="43">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1824544000" maxValue="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4646239000" maxValue="267009000"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -43903,7 +43842,7 @@
     <m/>
     <m/>
     <n v="8742169.7599999998"/>
-    <x v="0"/>
+    <m/>
     <n v="-8742169.7599999998"/>
   </r>
   <r>
@@ -43919,7 +43858,7 @@
     <m/>
     <m/>
     <n v="1398"/>
-    <x v="0"/>
+    <m/>
     <n v="-1398"/>
   </r>
   <r>
@@ -43935,7 +43874,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -43951,7 +43890,7 @@
     <m/>
     <n v="42235798.060000002"/>
     <n v="2471640.77"/>
-    <x v="0"/>
+    <m/>
     <n v="-2471640.77"/>
   </r>
   <r>
@@ -43967,7 +43906,7 @@
     <m/>
     <n v="2670849.4700000002"/>
     <n v="4282165.53"/>
-    <x v="0"/>
+    <m/>
     <n v="-4282165.53"/>
   </r>
   <r>
@@ -43983,7 +43922,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -43999,7 +43938,7 @@
     <m/>
     <n v="18113185.359999999"/>
     <n v="3076558.54"/>
-    <x v="0"/>
+    <m/>
     <n v="-3076558.54"/>
   </r>
   <r>
@@ -44015,7 +43954,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44031,7 +43970,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44047,7 +43986,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44063,7 +44002,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44079,8 +44018,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -44095,8 +44034,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -44111,8 +44050,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -44127,8 +44066,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -44143,8 +44082,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -44159,7 +44098,7 @@
     <m/>
     <m/>
     <n v="21257052.620000001"/>
-    <x v="1"/>
+    <n v="600000"/>
     <n v="-21857052.620000001"/>
   </r>
   <r>
@@ -44175,7 +44114,7 @@
     <m/>
     <m/>
     <n v="152356690"/>
-    <x v="0"/>
+    <m/>
     <n v="-152356690"/>
   </r>
   <r>
@@ -44191,7 +44130,7 @@
     <m/>
     <m/>
     <n v="80293551.510000005"/>
-    <x v="0"/>
+    <m/>
     <n v="-80293551.510000005"/>
   </r>
   <r>
@@ -44207,8 +44146,8 @@
     <n v="12325387.83"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="12325387.83"/>
   </r>
   <r>
     <x v="2"/>
@@ -44223,8 +44162,8 @@
     <m/>
     <m/>
     <n v="10083511.880000001"/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="-10083511.880000001"/>
   </r>
   <r>
     <x v="2"/>
@@ -44239,8 +44178,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -44255,8 +44194,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -44271,8 +44210,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -44287,8 +44226,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -44303,7 +44242,7 @@
     <m/>
     <n v="56759544.520000003"/>
     <m/>
-    <x v="2"/>
+    <n v="135895601.53999999"/>
     <n v="-135895601.53999999"/>
   </r>
   <r>
@@ -44319,7 +44258,7 @@
     <m/>
     <m/>
     <n v="20287129.75"/>
-    <x v="0"/>
+    <m/>
     <n v="-20287129.75"/>
   </r>
   <r>
@@ -44335,7 +44274,7 @@
     <m/>
     <m/>
     <n v="21329444.129999999"/>
-    <x v="0"/>
+    <m/>
     <n v="-21329444.129999999"/>
   </r>
   <r>
@@ -44351,7 +44290,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44367,7 +44306,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44383,7 +44322,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44399,8 +44338,8 @@
     <n v="16246971.57"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="16246971.57"/>
   </r>
   <r>
     <x v="4"/>
@@ -44415,8 +44354,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
-    <m/>
+    <n v="7000000"/>
+    <n v="-7000000"/>
   </r>
   <r>
     <x v="4"/>
@@ -44431,8 +44370,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -44447,8 +44386,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -44463,8 +44402,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -44479,8 +44418,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -44495,7 +44434,7 @@
     <m/>
     <m/>
     <n v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44511,7 +44450,7 @@
     <m/>
     <m/>
     <n v="37133"/>
-    <x v="0"/>
+    <m/>
     <n v="-37133"/>
   </r>
   <r>
@@ -44527,7 +44466,7 @@
     <m/>
     <n v="366702563"/>
     <n v="2999457"/>
-    <x v="0"/>
+    <m/>
     <n v="-2999457"/>
   </r>
   <r>
@@ -44543,7 +44482,7 @@
     <m/>
     <m/>
     <n v="2367464.0299999998"/>
-    <x v="0"/>
+    <m/>
     <n v="-2367464.0299999998"/>
   </r>
   <r>
@@ -44559,8 +44498,8 @@
     <n v="82283974.980133697"/>
     <m/>
     <m/>
-    <x v="4"/>
-    <m/>
+    <n v="97240040.4572943"/>
+    <n v="-14956065.477160603"/>
   </r>
   <r>
     <x v="5"/>
@@ -44575,8 +44514,8 @@
     <n v="8015262.5"/>
     <m/>
     <s v="-"/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="8015262.5"/>
   </r>
   <r>
     <x v="5"/>
@@ -44591,8 +44530,8 @@
     <m/>
     <m/>
     <n v="174514100.63"/>
-    <x v="6"/>
-    <m/>
+    <n v="174514100.63"/>
+    <n v="-349028201.25999999"/>
   </r>
   <r>
     <x v="5"/>
@@ -44607,8 +44546,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -44623,8 +44562,8 @@
     <m/>
     <m/>
     <n v="705000"/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="-705000"/>
   </r>
   <r>
     <x v="5"/>
@@ -44639,8 +44578,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -44655,8 +44594,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -44671,8 +44610,8 @@
     <m/>
     <m/>
     <n v="0"/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -44687,7 +44626,7 @@
     <m/>
     <n v="6838081.7699999996"/>
     <m/>
-    <x v="7"/>
+    <n v="25620.11"/>
     <n v="-25620.11"/>
   </r>
   <r>
@@ -44703,7 +44642,7 @@
     <m/>
     <n v="130629761.31"/>
     <n v="11831310.699999999"/>
-    <x v="8"/>
+    <n v="31939919.82"/>
     <n v="-43771230.519999996"/>
   </r>
   <r>
@@ -44719,7 +44658,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44735,7 +44674,7 @@
     <m/>
     <n v="3828583.68"/>
     <n v="24423473.920000002"/>
-    <x v="8"/>
+    <n v="31939919.82"/>
     <n v="-56363393.740000002"/>
   </r>
   <r>
@@ -44751,7 +44690,7 @@
     <m/>
     <n v="296829.01"/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44767,7 +44706,7 @@
     <m/>
     <n v="4103922.05"/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44783,7 +44722,7 @@
     <m/>
     <n v="3620.67"/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -44799,8 +44738,8 @@
     <n v="97455026.060000002"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="97455026.060000002"/>
   </r>
   <r>
     <x v="6"/>
@@ -44815,8 +44754,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="9"/>
-    <m/>
+    <n v="102887047.20999999"/>
+    <n v="-102887047.20999999"/>
   </r>
   <r>
     <x v="6"/>
@@ -44831,8 +44770,8 @@
     <n v="984176.65"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="984176.65"/>
   </r>
   <r>
     <x v="6"/>
@@ -44847,8 +44786,8 @@
     <n v="7593210"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="7593210"/>
   </r>
   <r>
     <x v="6"/>
@@ -44863,8 +44802,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -44879,8 +44818,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -44895,7 +44834,7 @@
     <m/>
     <m/>
     <n v="7205124.0300000003"/>
-    <x v="0"/>
+    <m/>
     <n v="-7205124.0300000003"/>
   </r>
   <r>
@@ -44911,7 +44850,7 @@
     <m/>
     <m/>
     <n v="1919000"/>
-    <x v="0"/>
+    <m/>
     <n v="-1919000"/>
   </r>
   <r>
@@ -44927,8 +44866,8 @@
     <n v="53247611.049999997"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="53247611.049999997"/>
   </r>
   <r>
     <x v="7"/>
@@ -44943,8 +44882,8 @@
     <n v="20151949.780000001"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="20151949.780000001"/>
   </r>
   <r>
     <x v="7"/>
@@ -44959,8 +44898,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="10"/>
-    <m/>
+    <n v="140420000"/>
+    <n v="-140420000"/>
   </r>
   <r>
     <x v="7"/>
@@ -44975,8 +44914,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -44991,7 +44930,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="11"/>
+    <n v="120266"/>
     <n v="-120266"/>
   </r>
   <r>
@@ -45007,7 +44946,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="12"/>
+    <n v="292463"/>
     <n v="-292463"/>
   </r>
   <r>
@@ -45023,7 +44962,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <n v="2650000"/>
     <n v="-2650000"/>
   </r>
   <r>
@@ -45039,7 +44978,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="14"/>
+    <n v="487363"/>
     <n v="-487363"/>
   </r>
   <r>
@@ -45055,7 +44994,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="15"/>
+    <n v="26018649"/>
     <n v="-26018649"/>
   </r>
   <r>
@@ -45071,8 +45010,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="16"/>
-    <m/>
+    <n v="20000000"/>
+    <n v="-20000000"/>
   </r>
   <r>
     <x v="8"/>
@@ -45087,8 +45026,8 @@
     <m/>
     <n v="17624"/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -45103,8 +45042,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -45119,8 +45058,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -45135,8 +45074,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -45151,8 +45090,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -45167,8 +45106,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -45183,8 +45122,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -45199,8 +45138,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -45215,8 +45154,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -45231,8 +45170,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -45247,7 +45186,7 @@
     <m/>
     <m/>
     <n v="65741109.520000003"/>
-    <x v="0"/>
+    <m/>
     <n v="-65741109.520000003"/>
   </r>
   <r>
@@ -45263,7 +45202,7 @@
     <m/>
     <m/>
     <n v="842558155.92999995"/>
-    <x v="0"/>
+    <m/>
     <n v="-842558155.92999995"/>
   </r>
   <r>
@@ -45279,8 +45218,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="17"/>
-    <m/>
+    <n v="350523"/>
+    <n v="-350523"/>
   </r>
   <r>
     <x v="9"/>
@@ -45295,8 +45234,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="18"/>
-    <m/>
+    <n v="277125"/>
+    <n v="-277125"/>
   </r>
   <r>
     <x v="9"/>
@@ -45311,8 +45250,8 @@
     <n v="4053937.58"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="4053937.58"/>
   </r>
   <r>
     <x v="10"/>
@@ -45327,7 +45266,7 @@
     <m/>
     <m/>
     <n v="209555011.56"/>
-    <x v="0"/>
+    <m/>
     <n v="-209555011.56"/>
   </r>
   <r>
@@ -45343,7 +45282,7 @@
     <m/>
     <m/>
     <n v="95032773.310000002"/>
-    <x v="0"/>
+    <m/>
     <n v="-95032773.310000002"/>
   </r>
   <r>
@@ -45359,7 +45298,7 @@
     <m/>
     <m/>
     <n v="8927028.3699999992"/>
-    <x v="0"/>
+    <m/>
     <n v="-8927028.3699999992"/>
   </r>
   <r>
@@ -45375,8 +45314,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="19"/>
-    <m/>
+    <n v="25097423.039999999"/>
+    <n v="-25097423.039999999"/>
   </r>
   <r>
     <x v="10"/>
@@ -45391,8 +45330,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -45407,8 +45346,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -45423,8 +45362,8 @@
     <n v="402054296.93000001"/>
     <m/>
     <m/>
-    <x v="20"/>
-    <m/>
+    <n v="367709020.64999998"/>
+    <n v="34345276.280000031"/>
   </r>
   <r>
     <x v="10"/>
@@ -45439,8 +45378,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="21"/>
-    <m/>
+    <n v="3833474.74"/>
+    <n v="-3833474.74"/>
   </r>
   <r>
     <x v="10"/>
@@ -45455,8 +45394,8 @@
     <n v="259439303.78"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="259439303.78"/>
   </r>
   <r>
     <x v="10"/>
@@ -45471,8 +45410,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -45487,8 +45426,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="22"/>
-    <m/>
+    <n v="20312409.829999998"/>
+    <n v="-20312409.829999998"/>
   </r>
   <r>
     <x v="10"/>
@@ -45503,8 +45442,8 @@
     <n v="7596759.1500000004"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="7596759.1500000004"/>
   </r>
   <r>
     <x v="10"/>
@@ -45519,8 +45458,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -45535,8 +45474,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -45551,8 +45490,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -45567,8 +45506,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="23"/>
-    <m/>
+    <n v="60960783.700000003"/>
+    <n v="-60960783.700000003"/>
   </r>
   <r>
     <x v="10"/>
@@ -45583,8 +45522,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -45599,8 +45538,8 @@
     <n v="950645.98"/>
     <m/>
     <m/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="950645.98"/>
   </r>
   <r>
     <x v="10"/>
@@ -45615,8 +45554,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="24"/>
-    <m/>
+    <n v="177692"/>
+    <n v="-177692"/>
   </r>
   <r>
     <x v="11"/>
@@ -45631,7 +45570,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -45647,7 +45586,7 @@
     <m/>
     <m/>
     <n v="19796.93"/>
-    <x v="0"/>
+    <m/>
     <n v="-19796.93"/>
   </r>
   <r>
@@ -45663,8 +45602,8 @@
     <n v="33254.46"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="33254.46"/>
   </r>
   <r>
     <x v="11"/>
@@ -45679,8 +45618,8 @@
     <n v="7897611.5300000003"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="7897611.5300000003"/>
   </r>
   <r>
     <x v="11"/>
@@ -45695,8 +45634,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="12"/>
@@ -45711,7 +45650,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -45727,7 +45666,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -45743,7 +45682,7 @@
     <m/>
     <m/>
     <n v="4145623.09"/>
-    <x v="0"/>
+    <m/>
     <n v="-4145623.09"/>
   </r>
   <r>
@@ -45759,7 +45698,7 @@
     <m/>
     <m/>
     <n v="0"/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -45775,7 +45714,7 @@
     <m/>
     <m/>
     <n v="14541744.480800018"/>
-    <x v="0"/>
+    <m/>
     <n v="-14541744.480800018"/>
   </r>
   <r>
@@ -45791,7 +45730,7 @@
     <m/>
     <n v="259046939"/>
     <n v="21532108"/>
-    <x v="0"/>
+    <m/>
     <n v="-21532108"/>
   </r>
   <r>
@@ -45807,8 +45746,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
-    <m/>
+    <n v="954440"/>
+    <n v="-954440"/>
   </r>
   <r>
     <x v="13"/>
@@ -45823,7 +45762,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -45839,8 +45778,8 @@
     <n v="123301078.59999999"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="123301078.59999999"/>
   </r>
   <r>
     <x v="13"/>
@@ -45855,7 +45794,7 @@
     <m/>
     <n v="4955.22"/>
     <n v="9326086.9299999997"/>
-    <x v="0"/>
+    <m/>
     <n v="-9326086.9299999997"/>
   </r>
   <r>
@@ -45871,7 +45810,7 @@
     <m/>
     <n v="522707.51"/>
     <n v="12611295.779999999"/>
-    <x v="0"/>
+    <m/>
     <n v="-12611295.779999999"/>
   </r>
   <r>
@@ -45887,7 +45826,7 @@
     <m/>
     <n v="118756.21"/>
     <n v="4237079.03"/>
-    <x v="0"/>
+    <m/>
     <n v="-4237079.03"/>
   </r>
   <r>
@@ -45903,7 +45842,7 @@
     <m/>
     <n v="621890.07999999996"/>
     <n v="72347464.170000002"/>
-    <x v="0"/>
+    <m/>
     <n v="-72347464.170000002"/>
   </r>
   <r>
@@ -45919,8 +45858,8 @@
     <m/>
     <n v="3331544.89"/>
     <m/>
-    <x v="26"/>
-    <m/>
+    <n v="150117300.06"/>
+    <n v="-150117300.06"/>
   </r>
   <r>
     <x v="13"/>
@@ -45935,7 +45874,7 @@
     <m/>
     <n v="711616.71"/>
     <n v="120279589.23999999"/>
-    <x v="0"/>
+    <m/>
     <n v="-120279589.23999999"/>
   </r>
   <r>
@@ -45951,7 +45890,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -45967,7 +45906,7 @@
     <m/>
     <m/>
     <n v="53863663.200000003"/>
-    <x v="0"/>
+    <m/>
     <n v="-53863663.200000003"/>
   </r>
   <r>
@@ -45983,7 +45922,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -45999,7 +45938,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -46015,7 +45954,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -46031,7 +45970,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -46047,7 +45986,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -46063,8 +46002,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="14"/>
@@ -46079,7 +46018,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -46095,8 +46034,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="14"/>
@@ -46111,8 +46050,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="15"/>
@@ -46127,7 +46066,7 @@
     <m/>
     <n v="1675033.97"/>
     <n v="54479571.460000001"/>
-    <x v="0"/>
+    <m/>
     <n v="-54479571.460000001"/>
   </r>
   <r>
@@ -46143,7 +46082,7 @@
     <m/>
     <n v="202799734"/>
     <n v="166248003"/>
-    <x v="0"/>
+    <m/>
     <n v="-166248003"/>
   </r>
   <r>
@@ -46159,7 +46098,7 @@
     <m/>
     <n v="240313"/>
     <n v="4600054"/>
-    <x v="0"/>
+    <m/>
     <n v="-4600054"/>
   </r>
   <r>
@@ -46175,7 +46114,7 @@
     <m/>
     <n v="37504179"/>
     <n v="96473246"/>
-    <x v="0"/>
+    <m/>
     <n v="-96473246"/>
   </r>
   <r>
@@ -46191,7 +46130,7 @@
     <m/>
     <s v="-"/>
     <n v="73291133"/>
-    <x v="0"/>
+    <m/>
     <n v="-73291133"/>
   </r>
   <r>
@@ -46207,7 +46146,7 @@
     <m/>
     <s v="-"/>
     <n v="2386838"/>
-    <x v="0"/>
+    <m/>
     <n v="-2386838"/>
   </r>
   <r>
@@ -46223,7 +46162,7 @@
     <m/>
     <n v="88938382"/>
     <n v="88806024"/>
-    <x v="27"/>
+    <n v="20453416"/>
     <n v="-109259440"/>
   </r>
   <r>
@@ -46239,8 +46178,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="28"/>
-    <m/>
+    <s v="-"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="15"/>
@@ -46255,8 +46194,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="28"/>
-    <m/>
+    <s v="-"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="15"/>
@@ -46271,8 +46210,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="29"/>
-    <m/>
+    <n v="513906733.42000002"/>
+    <n v="-513906733.42000002"/>
   </r>
   <r>
     <x v="15"/>
@@ -46287,8 +46226,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="28"/>
-    <m/>
+    <s v="-"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="15"/>
@@ -46303,8 +46242,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="30"/>
-    <m/>
+    <n v="3170000"/>
+    <n v="-3170000"/>
   </r>
   <r>
     <x v="15"/>
@@ -46319,8 +46258,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="28"/>
-    <m/>
+    <s v="-"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="15"/>
@@ -46335,8 +46274,8 @@
     <n v="9484633.5299999993"/>
     <m/>
     <m/>
-    <x v="31"/>
-    <m/>
+    <n v="2362872.48"/>
+    <n v="7121761.0499999989"/>
   </r>
   <r>
     <x v="15"/>
@@ -46351,8 +46290,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="32"/>
-    <m/>
+    <n v="2450000"/>
+    <n v="-2450000"/>
   </r>
   <r>
     <x v="16"/>
@@ -46367,8 +46306,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -46383,8 +46322,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -46399,8 +46338,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -46415,8 +46354,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -46431,8 +46370,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -46447,8 +46386,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -46463,8 +46402,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -46479,8 +46418,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -46495,8 +46434,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="17"/>
@@ -46511,8 +46450,8 @@
     <n v="0"/>
     <m/>
     <n v="0"/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="17"/>
@@ -46527,8 +46466,8 @@
     <n v="79597"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="79597"/>
   </r>
   <r>
     <x v="17"/>
@@ -46543,8 +46482,8 @@
     <n v="0"/>
     <m/>
     <n v="0"/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="17"/>
@@ -46559,8 +46498,8 @@
     <n v="2078756.2000000002"/>
     <m/>
     <n v="0"/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="2078756.2000000002"/>
   </r>
   <r>
     <x v="17"/>
@@ -46575,8 +46514,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="33"/>
-    <m/>
+    <n v="8000000"/>
+    <n v="-8000000"/>
   </r>
   <r>
     <x v="17"/>
@@ -46591,8 +46530,8 @@
     <n v="112195550.97"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="112195550.97"/>
   </r>
   <r>
     <x v="17"/>
@@ -46607,8 +46546,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="17"/>
@@ -46623,8 +46562,8 @@
     <m/>
     <m/>
     <n v="0"/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="17"/>
@@ -46639,8 +46578,8 @@
     <m/>
     <m/>
     <n v="88852712"/>
-    <x v="34"/>
-    <m/>
+    <n v="122887545"/>
+    <n v="-211740257"/>
   </r>
   <r>
     <x v="17"/>
@@ -46655,8 +46594,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="35"/>
-    <m/>
+    <n v="78409000"/>
+    <n v="-78409000"/>
   </r>
   <r>
     <x v="18"/>
@@ -46671,7 +46610,7 @@
     <m/>
     <n v="1520639140.95"/>
     <n v="118471548"/>
-    <x v="5"/>
+    <n v="0"/>
     <n v="-118471548"/>
   </r>
   <r>
@@ -46687,7 +46626,7 @@
     <m/>
     <m/>
     <n v="12098120"/>
-    <x v="0"/>
+    <m/>
     <n v="-12098120"/>
   </r>
   <r>
@@ -46703,7 +46642,7 @@
     <m/>
     <n v="29959277.760000002"/>
     <n v="37636867.840000004"/>
-    <x v="0"/>
+    <m/>
     <n v="-37636867.840000004"/>
   </r>
   <r>
@@ -46719,7 +46658,7 @@
     <m/>
     <n v="55539425.899999999"/>
     <n v="88363972.459999993"/>
-    <x v="5"/>
+    <n v="0"/>
     <n v="-88363972.459999993"/>
   </r>
   <r>
@@ -46735,7 +46674,7 @@
     <m/>
     <n v="20311372.079999998"/>
     <n v="20461009.859999999"/>
-    <x v="36"/>
+    <n v="12160.38"/>
     <n v="-20473170.239999998"/>
   </r>
   <r>
@@ -46751,7 +46690,7 @@
     <m/>
     <n v="60336368.759999998"/>
     <n v="61586954.340000004"/>
-    <x v="0"/>
+    <m/>
     <n v="-61586954.340000004"/>
   </r>
   <r>
@@ -46767,7 +46706,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -46783,7 +46722,7 @@
     <m/>
     <m/>
     <n v="4721472.8"/>
-    <x v="0"/>
+    <m/>
     <n v="-4721472.8"/>
   </r>
   <r>
@@ -46799,7 +46738,7 @@
     <m/>
     <n v="4928398.7299999995"/>
     <n v="14186004.449999999"/>
-    <x v="0"/>
+    <m/>
     <n v="-14186004.449999999"/>
   </r>
   <r>
@@ -46815,7 +46754,7 @@
     <m/>
     <n v="536601.81000000006"/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -46831,8 +46770,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="19"/>
@@ -46847,7 +46786,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -46863,7 +46802,7 @@
     <m/>
     <m/>
     <n v="14137577"/>
-    <x v="0"/>
+    <m/>
     <n v="-14137577"/>
   </r>
   <r>
@@ -46879,7 +46818,7 @@
     <m/>
     <m/>
     <n v="8620345.8699999992"/>
-    <x v="0"/>
+    <m/>
     <n v="-8620345.8699999992"/>
   </r>
   <r>
@@ -46895,7 +46834,7 @@
     <m/>
     <n v="4372744.87"/>
     <n v="4287481.88"/>
-    <x v="0"/>
+    <m/>
     <n v="-4287481.88"/>
   </r>
   <r>
@@ -46911,7 +46850,7 @@
     <m/>
     <m/>
     <n v="20032620.949999999"/>
-    <x v="0"/>
+    <m/>
     <n v="-20032620.949999999"/>
   </r>
   <r>
@@ -46927,8 +46866,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="37"/>
-    <m/>
+    <n v="9975363.9799999986"/>
+    <n v="-9975363.9799999986"/>
   </r>
   <r>
     <x v="19"/>
@@ -46943,8 +46882,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="19"/>
@@ -46959,8 +46898,8 @@
     <n v="2847416.05"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="2847416.05"/>
   </r>
   <r>
     <x v="19"/>
@@ -46975,8 +46914,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="20"/>
@@ -46991,7 +46930,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="38"/>
+    <n v="170000"/>
     <n v="-170000"/>
   </r>
   <r>
@@ -47007,8 +46946,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="20"/>
@@ -47023,8 +46962,8 @@
     <m/>
     <m/>
     <n v="1928781.64"/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="-1928781.64"/>
   </r>
   <r>
     <x v="20"/>
@@ -47039,8 +46978,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="39"/>
-    <m/>
+    <n v="1000000"/>
+    <n v="-1000000"/>
   </r>
   <r>
     <x v="21"/>
@@ -47055,8 +46994,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="21"/>
@@ -47071,8 +47010,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="21"/>
@@ -47087,8 +47026,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="22"/>
@@ -47103,8 +47042,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="22"/>
@@ -47119,8 +47058,8 @@
     <n v="37410062.350000001"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="37410062.350000001"/>
   </r>
   <r>
     <x v="22"/>
@@ -47135,8 +47074,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="22"/>
@@ -47151,8 +47090,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="22"/>
@@ -47167,8 +47106,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="22"/>
@@ -47183,8 +47122,8 @@
     <n v="152375000"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="152375000"/>
   </r>
   <r>
     <x v="22"/>
@@ -47199,8 +47138,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="22"/>
@@ -47215,8 +47154,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="22"/>
@@ -47231,8 +47170,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="22"/>
@@ -47247,8 +47186,8 @@
     <n v="267009000"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="267009000"/>
   </r>
   <r>
     <x v="22"/>
@@ -47263,8 +47202,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="23"/>
@@ -47279,7 +47218,7 @@
     <m/>
     <m/>
     <n v="8447006.4199999999"/>
-    <x v="0"/>
+    <m/>
     <n v="-8447006.4199999999"/>
   </r>
   <r>
@@ -47295,7 +47234,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -47311,7 +47250,7 @@
     <m/>
     <m/>
     <n v="13376238.9"/>
-    <x v="0"/>
+    <m/>
     <n v="-13376238.9"/>
   </r>
   <r>
@@ -47327,7 +47266,7 @@
     <m/>
     <m/>
     <n v="333578562.31"/>
-    <x v="40"/>
+    <n v="4854000"/>
     <n v="-338432562.31"/>
   </r>
   <r>
@@ -47343,8 +47282,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="41"/>
-    <m/>
+    <n v="7293811.54"/>
+    <n v="-7293811.54"/>
   </r>
   <r>
     <x v="23"/>
@@ -47359,8 +47298,8 @@
     <n v="2274039.61"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="2274039.61"/>
   </r>
   <r>
     <x v="23"/>
@@ -47375,8 +47314,8 @@
     <n v="3611629.72"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="3611629.72"/>
   </r>
   <r>
     <x v="23"/>
@@ -47391,8 +47330,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="23"/>
@@ -47407,8 +47346,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="23"/>
@@ -47423,8 +47362,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="42"/>
-    <m/>
+    <n v="866345.6"/>
+    <n v="-866345.6"/>
   </r>
   <r>
     <x v="23"/>
@@ -47439,8 +47378,8 @@
     <n v="0"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="23"/>
@@ -47455,8 +47394,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="23"/>
@@ -47471,8 +47410,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="24"/>
@@ -47487,7 +47426,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -47503,7 +47442,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -47519,7 +47458,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -47535,7 +47474,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -47551,7 +47490,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -47567,7 +47506,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -47583,7 +47522,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
@@ -47599,8 +47538,8 @@
     <n v="254390.34"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="254390.34"/>
   </r>
   <r>
     <x v="24"/>
@@ -47615,8 +47554,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="43"/>
-    <m/>
+    <n v="11447648"/>
+    <n v="-11447648"/>
   </r>
   <r>
     <x v="24"/>
@@ -47631,8 +47570,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="24"/>
@@ -47647,8 +47586,8 @@
     <n v="22623868.799999997"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="22623868.799999997"/>
   </r>
   <r>
     <x v="25"/>
@@ -47663,7 +47602,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="166623000"/>
-    <x v="44"/>
+    <n v="407000"/>
     <n v="-167030000"/>
   </r>
   <r>
@@ -47679,7 +47618,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="16758000"/>
-    <x v="5"/>
+    <n v="0"/>
     <n v="-16758000"/>
   </r>
   <r>
@@ -47695,7 +47634,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="28582000"/>
-    <x v="5"/>
+    <n v="0"/>
     <n v="-28582000"/>
   </r>
   <r>
@@ -47711,7 +47650,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="40347000"/>
-    <x v="5"/>
+    <n v="0"/>
     <n v="-40347000"/>
   </r>
   <r>
@@ -47727,7 +47666,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="89764000"/>
-    <x v="45"/>
+    <n v="51000"/>
     <n v="-89815000"/>
   </r>
   <r>
@@ -47743,7 +47682,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="958888000"/>
-    <x v="46"/>
+    <n v="865656000"/>
     <n v="-1824544000"/>
   </r>
   <r>
@@ -47759,8 +47698,8 @@
     <n v="353761000"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="47"/>
-    <m/>
+    <n v="5000000000"/>
+    <n v="-4646239000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47775,8 +47714,8 @@
     <n v="15439000"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="48"/>
-    <m/>
+    <n v="10424000"/>
+    <n v="5015000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47791,8 +47730,8 @@
     <n v="1428000"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="1428000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47807,8 +47746,8 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="49"/>
-    <m/>
+    <n v="2055429000"/>
+    <n v="-2055429000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47823,8 +47762,8 @@
     <n v="5748000"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="5748000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47839,8 +47778,8 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="50"/>
-    <m/>
+    <n v="347000000"/>
+    <n v="-347000000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47855,8 +47794,8 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="51"/>
-    <m/>
+    <n v="186488000"/>
+    <n v="-186488000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47871,8 +47810,8 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="25"/>
@@ -47887,8 +47826,8 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="52"/>
-    <m/>
+    <n v="611250000"/>
+    <n v="-611250000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47903,8 +47842,8 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="25"/>
@@ -47919,8 +47858,8 @@
     <n v="10656000"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="53"/>
-    <m/>
+    <n v="8137000"/>
+    <n v="2519000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47935,8 +47874,8 @@
     <n v="31464000"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="54"/>
-    <m/>
+    <n v="65128000"/>
+    <n v="-33664000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47951,8 +47890,8 @@
     <n v="69429000"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="5"/>
-    <m/>
+    <n v="0"/>
+    <n v="69429000"/>
   </r>
   <r>
     <x v="25"/>
@@ -47967,8 +47906,8 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="55"/>
-    <m/>
+    <n v="65822000"/>
+    <n v="-65822000"/>
   </r>
   <r>
     <x v="26"/>
@@ -47983,8 +47922,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="26"/>
@@ -47999,8 +47938,8 @@
     <m/>
     <m/>
     <m/>
-    <x v="0"/>
-    <m/>
+    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="26"/>
@@ -48015,14 +47954,14 @@
     <m/>
     <m/>
     <m/>
-    <x v="56"/>
-    <m/>
+    <n v="185000"/>
+    <n v="-185000"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C3685FF-5FFD-4C24-9A0D-597EA3565E04}" name="Tabela dinâmica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C3685FF-5FFD-4C24-9A0D-597EA3565E04}" name="Tabela dinâmica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -48386,7 +48325,7 @@
     <dataField name="Soma de Lucros / Prejuízos" fld="8" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -48403,7 +48342,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B56C4FE-BF8A-4598-8E11-CF51288CF5B8}" name="Tabela dinâmica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1B56C4FE-BF8A-4598-8E11-CF51288CF5B8}" name="Tabela dinâmica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:F31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -48449,68 +48388,7 @@
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="58">
-        <item x="5"/>
-        <item x="36"/>
-        <item x="7"/>
-        <item x="45"/>
-        <item x="11"/>
-        <item x="38"/>
-        <item x="24"/>
-        <item x="56"/>
-        <item x="18"/>
-        <item x="12"/>
-        <item x="17"/>
-        <item x="44"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="42"/>
-        <item x="25"/>
-        <item x="39"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="13"/>
-        <item x="30"/>
-        <item x="21"/>
-        <item x="40"/>
-        <item x="3"/>
-        <item x="41"/>
-        <item x="33"/>
-        <item x="53"/>
-        <item x="37"/>
-        <item x="48"/>
-        <item x="43"/>
-        <item x="16"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="8"/>
-        <item x="23"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="35"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="34"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="26"/>
-        <item x="6"/>
-        <item x="51"/>
-        <item x="50"/>
-        <item x="20"/>
-        <item x="29"/>
-        <item x="52"/>
-        <item x="46"/>
-        <item x="49"/>
-        <item x="47"/>
-        <item x="28"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -48630,7 +48508,7 @@
     <dataField name="Soma de Resultado para o Estado Acionista" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -49378,842 +49256,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D376FFE4-9E01-440D-A89A-0615558CD5CD}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0">
-      <items count="29">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item h="1" x="27"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="249">
-        <item x="49"/>
-        <item x="52"/>
-        <item x="50"/>
-        <item x="53"/>
-        <item x="156"/>
-        <item x="73"/>
-        <item x="189"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="17"/>
-        <item x="7"/>
-        <item x="112"/>
-        <item x="139"/>
-        <item x="206"/>
-        <item x="22"/>
-        <item x="163"/>
-        <item x="244"/>
-        <item x="150"/>
-        <item x="182"/>
-        <item x="149"/>
-        <item x="14"/>
-        <item x="200"/>
-        <item x="27"/>
-        <item x="32"/>
-        <item x="1"/>
-        <item x="56"/>
-        <item x="89"/>
-        <item x="10"/>
-        <item x="224"/>
-        <item x="114"/>
-        <item x="199"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="179"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="74"/>
-        <item x="28"/>
-        <item x="68"/>
-        <item x="238"/>
-        <item x="176"/>
-        <item x="75"/>
-        <item x="62"/>
-        <item x="174"/>
-        <item x="76"/>
-        <item x="172"/>
-        <item x="105"/>
-        <item x="45"/>
-        <item x="59"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="160"/>
-        <item x="194"/>
-        <item x="207"/>
-        <item x="210"/>
-        <item x="30"/>
-        <item x="66"/>
-        <item x="225"/>
-        <item x="67"/>
-        <item x="131"/>
-        <item x="151"/>
-        <item x="205"/>
-        <item x="168"/>
-        <item x="212"/>
-        <item x="6"/>
-        <item x="153"/>
-        <item x="173"/>
-        <item x="124"/>
-        <item x="147"/>
-        <item x="128"/>
-        <item x="152"/>
-        <item x="148"/>
-        <item x="20"/>
-        <item x="227"/>
-        <item x="77"/>
-        <item x="63"/>
-        <item x="113"/>
-        <item x="117"/>
-        <item x="31"/>
-        <item x="219"/>
-        <item x="48"/>
-        <item x="8"/>
-        <item x="26"/>
-        <item x="211"/>
-        <item x="43"/>
-        <item x="23"/>
-        <item x="41"/>
-        <item x="184"/>
-        <item x="188"/>
-        <item x="171"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="154"/>
-        <item x="187"/>
-        <item x="40"/>
-        <item x="90"/>
-        <item x="217"/>
-        <item x="54"/>
-        <item x="170"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="91"/>
-        <item x="19"/>
-        <item x="42"/>
-        <item x="104"/>
-        <item x="191"/>
-        <item x="121"/>
-        <item x="46"/>
-        <item x="118"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="201"/>
-        <item x="162"/>
-        <item x="186"/>
-        <item x="246"/>
-        <item x="115"/>
-        <item x="190"/>
-        <item x="57"/>
-        <item x="86"/>
-        <item x="11"/>
-        <item x="93"/>
-        <item x="222"/>
-        <item x="16"/>
-        <item x="111"/>
-        <item x="119"/>
-        <item x="155"/>
-        <item x="94"/>
-        <item x="157"/>
-        <item x="164"/>
-        <item x="44"/>
-        <item x="130"/>
-        <item x="226"/>
-        <item x="140"/>
-        <item x="58"/>
-        <item x="95"/>
-        <item x="197"/>
-        <item x="196"/>
-        <item x="169"/>
-        <item x="132"/>
-        <item x="215"/>
-        <item x="245"/>
-        <item x="60"/>
-        <item x="3"/>
-        <item x="202"/>
-        <item x="88"/>
-        <item x="108"/>
-        <item x="129"/>
-        <item x="159"/>
-        <item x="145"/>
-        <item x="141"/>
-        <item x="193"/>
-        <item x="195"/>
-        <item x="183"/>
-        <item x="29"/>
-        <item x="133"/>
-        <item x="96"/>
-        <item x="233"/>
-        <item x="239"/>
-        <item x="241"/>
-        <item x="240"/>
-        <item x="230"/>
-        <item x="178"/>
-        <item x="243"/>
-        <item x="33"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="35"/>
-        <item x="237"/>
-        <item x="87"/>
-        <item x="69"/>
-        <item x="180"/>
-        <item x="120"/>
-        <item x="0"/>
-        <item x="107"/>
-        <item x="175"/>
-        <item x="228"/>
-        <item x="25"/>
-        <item x="126"/>
-        <item x="37"/>
-        <item x="167"/>
-        <item x="220"/>
-        <item x="214"/>
-        <item x="102"/>
-        <item x="165"/>
-        <item x="204"/>
-        <item x="166"/>
-        <item x="103"/>
-        <item x="101"/>
-        <item x="122"/>
-        <item x="38"/>
-        <item x="136"/>
-        <item x="18"/>
-        <item x="198"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="110"/>
-        <item x="127"/>
-        <item x="123"/>
-        <item x="137"/>
-        <item x="134"/>
-        <item x="216"/>
-        <item x="218"/>
-        <item x="177"/>
-        <item x="236"/>
-        <item x="158"/>
-        <item x="12"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="70"/>
-        <item x="242"/>
-        <item x="135"/>
-        <item x="97"/>
-        <item x="161"/>
-        <item x="229"/>
-        <item x="81"/>
-        <item x="142"/>
-        <item x="125"/>
-        <item x="13"/>
-        <item x="71"/>
-        <item x="106"/>
-        <item x="234"/>
-        <item x="82"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="109"/>
-        <item x="138"/>
-        <item x="146"/>
-        <item x="181"/>
-        <item x="72"/>
-        <item x="21"/>
-        <item x="34"/>
-        <item x="232"/>
-        <item x="231"/>
-        <item x="83"/>
-        <item x="208"/>
-        <item x="203"/>
-        <item x="213"/>
-        <item x="221"/>
-        <item x="9"/>
-        <item x="223"/>
-        <item x="55"/>
-        <item x="185"/>
-        <item x="143"/>
-        <item x="51"/>
-        <item x="100"/>
-        <item x="36"/>
-        <item x="247"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="20">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Empresa" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="248" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{108DFA18-215C-48DD-A8FA-0184EDE7DC13}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B28:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0">
-      <items count="29">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item h="1" x="27"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="249">
-        <item x="49"/>
-        <item x="52"/>
-        <item x="50"/>
-        <item x="53"/>
-        <item x="156"/>
-        <item x="73"/>
-        <item x="189"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="17"/>
-        <item x="7"/>
-        <item x="112"/>
-        <item x="139"/>
-        <item x="206"/>
-        <item x="22"/>
-        <item x="163"/>
-        <item x="244"/>
-        <item x="150"/>
-        <item x="182"/>
-        <item x="149"/>
-        <item x="14"/>
-        <item x="200"/>
-        <item x="27"/>
-        <item x="32"/>
-        <item x="1"/>
-        <item x="56"/>
-        <item x="89"/>
-        <item x="10"/>
-        <item x="224"/>
-        <item x="114"/>
-        <item x="199"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="179"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="74"/>
-        <item x="28"/>
-        <item x="68"/>
-        <item x="238"/>
-        <item x="176"/>
-        <item x="75"/>
-        <item x="62"/>
-        <item x="174"/>
-        <item x="76"/>
-        <item x="172"/>
-        <item x="105"/>
-        <item x="45"/>
-        <item x="59"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="160"/>
-        <item x="194"/>
-        <item x="207"/>
-        <item x="210"/>
-        <item x="30"/>
-        <item x="66"/>
-        <item x="225"/>
-        <item x="67"/>
-        <item x="131"/>
-        <item x="151"/>
-        <item x="205"/>
-        <item x="168"/>
-        <item x="212"/>
-        <item x="6"/>
-        <item x="153"/>
-        <item x="173"/>
-        <item x="124"/>
-        <item x="147"/>
-        <item x="128"/>
-        <item x="152"/>
-        <item x="148"/>
-        <item x="20"/>
-        <item x="227"/>
-        <item x="77"/>
-        <item x="63"/>
-        <item x="113"/>
-        <item x="117"/>
-        <item x="31"/>
-        <item x="219"/>
-        <item x="48"/>
-        <item x="8"/>
-        <item x="26"/>
-        <item x="211"/>
-        <item x="43"/>
-        <item x="23"/>
-        <item x="41"/>
-        <item x="184"/>
-        <item x="188"/>
-        <item x="171"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="154"/>
-        <item x="187"/>
-        <item x="40"/>
-        <item x="90"/>
-        <item x="217"/>
-        <item x="54"/>
-        <item x="170"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="91"/>
-        <item x="19"/>
-        <item x="42"/>
-        <item x="104"/>
-        <item x="191"/>
-        <item x="121"/>
-        <item x="46"/>
-        <item x="118"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="201"/>
-        <item x="162"/>
-        <item x="186"/>
-        <item x="246"/>
-        <item x="115"/>
-        <item x="190"/>
-        <item x="57"/>
-        <item x="86"/>
-        <item x="11"/>
-        <item x="93"/>
-        <item x="222"/>
-        <item x="16"/>
-        <item x="111"/>
-        <item x="119"/>
-        <item x="155"/>
-        <item x="94"/>
-        <item x="157"/>
-        <item x="164"/>
-        <item x="44"/>
-        <item x="130"/>
-        <item x="226"/>
-        <item x="140"/>
-        <item x="58"/>
-        <item x="95"/>
-        <item x="197"/>
-        <item x="196"/>
-        <item x="169"/>
-        <item x="132"/>
-        <item x="215"/>
-        <item x="245"/>
-        <item x="60"/>
-        <item x="3"/>
-        <item x="202"/>
-        <item x="88"/>
-        <item x="108"/>
-        <item x="129"/>
-        <item x="159"/>
-        <item x="145"/>
-        <item x="141"/>
-        <item x="193"/>
-        <item x="195"/>
-        <item x="183"/>
-        <item x="29"/>
-        <item x="133"/>
-        <item x="96"/>
-        <item x="233"/>
-        <item x="239"/>
-        <item x="241"/>
-        <item x="240"/>
-        <item x="230"/>
-        <item x="178"/>
-        <item x="243"/>
-        <item x="33"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="35"/>
-        <item x="237"/>
-        <item x="87"/>
-        <item x="69"/>
-        <item x="180"/>
-        <item x="120"/>
-        <item x="0"/>
-        <item x="107"/>
-        <item x="175"/>
-        <item x="228"/>
-        <item x="25"/>
-        <item x="126"/>
-        <item x="37"/>
-        <item x="167"/>
-        <item x="220"/>
-        <item x="214"/>
-        <item x="102"/>
-        <item x="165"/>
-        <item x="204"/>
-        <item x="166"/>
-        <item x="103"/>
-        <item x="101"/>
-        <item x="122"/>
-        <item x="38"/>
-        <item x="136"/>
-        <item x="18"/>
-        <item x="198"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="110"/>
-        <item x="127"/>
-        <item x="123"/>
-        <item x="137"/>
-        <item x="134"/>
-        <item x="216"/>
-        <item x="218"/>
-        <item x="177"/>
-        <item x="236"/>
-        <item x="158"/>
-        <item x="12"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="70"/>
-        <item x="242"/>
-        <item x="135"/>
-        <item x="97"/>
-        <item x="161"/>
-        <item x="229"/>
-        <item x="81"/>
-        <item x="142"/>
-        <item x="125"/>
-        <item x="13"/>
-        <item x="71"/>
-        <item x="106"/>
-        <item x="234"/>
-        <item x="82"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="109"/>
-        <item x="138"/>
-        <item x="146"/>
-        <item x="181"/>
-        <item x="72"/>
-        <item x="21"/>
-        <item x="34"/>
-        <item x="232"/>
-        <item x="231"/>
-        <item x="83"/>
-        <item x="208"/>
-        <item x="203"/>
-        <item x="213"/>
-        <item x="221"/>
-        <item x="9"/>
-        <item x="223"/>
-        <item x="55"/>
-        <item x="185"/>
-        <item x="143"/>
-        <item x="51"/>
-        <item x="100"/>
-        <item x="36"/>
-        <item x="247"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="20">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54178E12-E6C4-40BF-B68F-A0C0C4BF1E6E}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="C3:F31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -50820,10 +49862,10 @@
     <dataField name="Soma de Reforço de Capital" fld="10" baseField="0" baseItem="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="5">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -50833,6 +49875,842 @@
       </pivotArea>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D376FFE4-9E01-440D-A89A-0615558CD5CD}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item h="1" x="27"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="249">
+        <item x="49"/>
+        <item x="52"/>
+        <item x="50"/>
+        <item x="53"/>
+        <item x="156"/>
+        <item x="73"/>
+        <item x="189"/>
+        <item x="47"/>
+        <item x="144"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="112"/>
+        <item x="139"/>
+        <item x="206"/>
+        <item x="22"/>
+        <item x="163"/>
+        <item x="244"/>
+        <item x="150"/>
+        <item x="182"/>
+        <item x="149"/>
+        <item x="14"/>
+        <item x="200"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="1"/>
+        <item x="56"/>
+        <item x="89"/>
+        <item x="10"/>
+        <item x="224"/>
+        <item x="114"/>
+        <item x="199"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="179"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="74"/>
+        <item x="28"/>
+        <item x="68"/>
+        <item x="238"/>
+        <item x="176"/>
+        <item x="75"/>
+        <item x="62"/>
+        <item x="174"/>
+        <item x="76"/>
+        <item x="172"/>
+        <item x="105"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="160"/>
+        <item x="194"/>
+        <item x="207"/>
+        <item x="210"/>
+        <item x="30"/>
+        <item x="66"/>
+        <item x="225"/>
+        <item x="67"/>
+        <item x="131"/>
+        <item x="151"/>
+        <item x="205"/>
+        <item x="168"/>
+        <item x="212"/>
+        <item x="6"/>
+        <item x="153"/>
+        <item x="173"/>
+        <item x="124"/>
+        <item x="147"/>
+        <item x="128"/>
+        <item x="152"/>
+        <item x="148"/>
+        <item x="20"/>
+        <item x="227"/>
+        <item x="77"/>
+        <item x="63"/>
+        <item x="113"/>
+        <item x="117"/>
+        <item x="31"/>
+        <item x="219"/>
+        <item x="48"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="211"/>
+        <item x="43"/>
+        <item x="23"/>
+        <item x="41"/>
+        <item x="184"/>
+        <item x="188"/>
+        <item x="171"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="154"/>
+        <item x="187"/>
+        <item x="40"/>
+        <item x="90"/>
+        <item x="217"/>
+        <item x="54"/>
+        <item x="170"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="91"/>
+        <item x="19"/>
+        <item x="42"/>
+        <item x="104"/>
+        <item x="191"/>
+        <item x="121"/>
+        <item x="46"/>
+        <item x="118"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="201"/>
+        <item x="162"/>
+        <item x="186"/>
+        <item x="246"/>
+        <item x="115"/>
+        <item x="190"/>
+        <item x="57"/>
+        <item x="86"/>
+        <item x="11"/>
+        <item x="93"/>
+        <item x="222"/>
+        <item x="16"/>
+        <item x="111"/>
+        <item x="119"/>
+        <item x="155"/>
+        <item x="94"/>
+        <item x="157"/>
+        <item x="164"/>
+        <item x="44"/>
+        <item x="130"/>
+        <item x="226"/>
+        <item x="140"/>
+        <item x="58"/>
+        <item x="95"/>
+        <item x="197"/>
+        <item x="196"/>
+        <item x="169"/>
+        <item x="132"/>
+        <item x="215"/>
+        <item x="245"/>
+        <item x="60"/>
+        <item x="3"/>
+        <item x="202"/>
+        <item x="88"/>
+        <item x="108"/>
+        <item x="129"/>
+        <item x="159"/>
+        <item x="145"/>
+        <item x="141"/>
+        <item x="193"/>
+        <item x="195"/>
+        <item x="183"/>
+        <item x="29"/>
+        <item x="133"/>
+        <item x="96"/>
+        <item x="233"/>
+        <item x="239"/>
+        <item x="241"/>
+        <item x="240"/>
+        <item x="230"/>
+        <item x="178"/>
+        <item x="243"/>
+        <item x="33"/>
+        <item x="235"/>
+        <item x="61"/>
+        <item x="35"/>
+        <item x="237"/>
+        <item x="87"/>
+        <item x="69"/>
+        <item x="180"/>
+        <item x="120"/>
+        <item x="0"/>
+        <item x="107"/>
+        <item x="175"/>
+        <item x="228"/>
+        <item x="25"/>
+        <item x="126"/>
+        <item x="37"/>
+        <item x="167"/>
+        <item x="220"/>
+        <item x="214"/>
+        <item x="102"/>
+        <item x="165"/>
+        <item x="204"/>
+        <item x="166"/>
+        <item x="103"/>
+        <item x="101"/>
+        <item x="122"/>
+        <item x="38"/>
+        <item x="136"/>
+        <item x="18"/>
+        <item x="198"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="110"/>
+        <item x="127"/>
+        <item x="123"/>
+        <item x="137"/>
+        <item x="134"/>
+        <item x="216"/>
+        <item x="218"/>
+        <item x="177"/>
+        <item x="236"/>
+        <item x="158"/>
+        <item x="12"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="70"/>
+        <item x="242"/>
+        <item x="135"/>
+        <item x="97"/>
+        <item x="161"/>
+        <item x="229"/>
+        <item x="81"/>
+        <item x="142"/>
+        <item x="125"/>
+        <item x="13"/>
+        <item x="71"/>
+        <item x="106"/>
+        <item x="234"/>
+        <item x="82"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="109"/>
+        <item x="138"/>
+        <item x="146"/>
+        <item x="181"/>
+        <item x="72"/>
+        <item x="21"/>
+        <item x="34"/>
+        <item x="232"/>
+        <item x="231"/>
+        <item x="83"/>
+        <item x="208"/>
+        <item x="203"/>
+        <item x="213"/>
+        <item x="221"/>
+        <item x="9"/>
+        <item x="223"/>
+        <item x="55"/>
+        <item x="185"/>
+        <item x="143"/>
+        <item x="51"/>
+        <item x="100"/>
+        <item x="36"/>
+        <item x="247"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Empresa" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="248" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{108DFA18-215C-48DD-A8FA-0184EDE7DC13}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B28:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item h="1" x="27"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="249">
+        <item x="49"/>
+        <item x="52"/>
+        <item x="50"/>
+        <item x="53"/>
+        <item x="156"/>
+        <item x="73"/>
+        <item x="189"/>
+        <item x="47"/>
+        <item x="144"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="112"/>
+        <item x="139"/>
+        <item x="206"/>
+        <item x="22"/>
+        <item x="163"/>
+        <item x="244"/>
+        <item x="150"/>
+        <item x="182"/>
+        <item x="149"/>
+        <item x="14"/>
+        <item x="200"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="1"/>
+        <item x="56"/>
+        <item x="89"/>
+        <item x="10"/>
+        <item x="224"/>
+        <item x="114"/>
+        <item x="199"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="179"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="74"/>
+        <item x="28"/>
+        <item x="68"/>
+        <item x="238"/>
+        <item x="176"/>
+        <item x="75"/>
+        <item x="62"/>
+        <item x="174"/>
+        <item x="76"/>
+        <item x="172"/>
+        <item x="105"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="160"/>
+        <item x="194"/>
+        <item x="207"/>
+        <item x="210"/>
+        <item x="30"/>
+        <item x="66"/>
+        <item x="225"/>
+        <item x="67"/>
+        <item x="131"/>
+        <item x="151"/>
+        <item x="205"/>
+        <item x="168"/>
+        <item x="212"/>
+        <item x="6"/>
+        <item x="153"/>
+        <item x="173"/>
+        <item x="124"/>
+        <item x="147"/>
+        <item x="128"/>
+        <item x="152"/>
+        <item x="148"/>
+        <item x="20"/>
+        <item x="227"/>
+        <item x="77"/>
+        <item x="63"/>
+        <item x="113"/>
+        <item x="117"/>
+        <item x="31"/>
+        <item x="219"/>
+        <item x="48"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="211"/>
+        <item x="43"/>
+        <item x="23"/>
+        <item x="41"/>
+        <item x="184"/>
+        <item x="188"/>
+        <item x="171"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="154"/>
+        <item x="187"/>
+        <item x="40"/>
+        <item x="90"/>
+        <item x="217"/>
+        <item x="54"/>
+        <item x="170"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="91"/>
+        <item x="19"/>
+        <item x="42"/>
+        <item x="104"/>
+        <item x="191"/>
+        <item x="121"/>
+        <item x="46"/>
+        <item x="118"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="201"/>
+        <item x="162"/>
+        <item x="186"/>
+        <item x="246"/>
+        <item x="115"/>
+        <item x="190"/>
+        <item x="57"/>
+        <item x="86"/>
+        <item x="11"/>
+        <item x="93"/>
+        <item x="222"/>
+        <item x="16"/>
+        <item x="111"/>
+        <item x="119"/>
+        <item x="155"/>
+        <item x="94"/>
+        <item x="157"/>
+        <item x="164"/>
+        <item x="44"/>
+        <item x="130"/>
+        <item x="226"/>
+        <item x="140"/>
+        <item x="58"/>
+        <item x="95"/>
+        <item x="197"/>
+        <item x="196"/>
+        <item x="169"/>
+        <item x="132"/>
+        <item x="215"/>
+        <item x="245"/>
+        <item x="60"/>
+        <item x="3"/>
+        <item x="202"/>
+        <item x="88"/>
+        <item x="108"/>
+        <item x="129"/>
+        <item x="159"/>
+        <item x="145"/>
+        <item x="141"/>
+        <item x="193"/>
+        <item x="195"/>
+        <item x="183"/>
+        <item x="29"/>
+        <item x="133"/>
+        <item x="96"/>
+        <item x="233"/>
+        <item x="239"/>
+        <item x="241"/>
+        <item x="240"/>
+        <item x="230"/>
+        <item x="178"/>
+        <item x="243"/>
+        <item x="33"/>
+        <item x="235"/>
+        <item x="61"/>
+        <item x="35"/>
+        <item x="237"/>
+        <item x="87"/>
+        <item x="69"/>
+        <item x="180"/>
+        <item x="120"/>
+        <item x="0"/>
+        <item x="107"/>
+        <item x="175"/>
+        <item x="228"/>
+        <item x="25"/>
+        <item x="126"/>
+        <item x="37"/>
+        <item x="167"/>
+        <item x="220"/>
+        <item x="214"/>
+        <item x="102"/>
+        <item x="165"/>
+        <item x="204"/>
+        <item x="166"/>
+        <item x="103"/>
+        <item x="101"/>
+        <item x="122"/>
+        <item x="38"/>
+        <item x="136"/>
+        <item x="18"/>
+        <item x="198"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="110"/>
+        <item x="127"/>
+        <item x="123"/>
+        <item x="137"/>
+        <item x="134"/>
+        <item x="216"/>
+        <item x="218"/>
+        <item x="177"/>
+        <item x="236"/>
+        <item x="158"/>
+        <item x="12"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="70"/>
+        <item x="242"/>
+        <item x="135"/>
+        <item x="97"/>
+        <item x="161"/>
+        <item x="229"/>
+        <item x="81"/>
+        <item x="142"/>
+        <item x="125"/>
+        <item x="13"/>
+        <item x="71"/>
+        <item x="106"/>
+        <item x="234"/>
+        <item x="82"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="109"/>
+        <item x="138"/>
+        <item x="146"/>
+        <item x="181"/>
+        <item x="72"/>
+        <item x="21"/>
+        <item x="34"/>
+        <item x="232"/>
+        <item x="231"/>
+        <item x="83"/>
+        <item x="208"/>
+        <item x="203"/>
+        <item x="213"/>
+        <item x="221"/>
+        <item x="9"/>
+        <item x="223"/>
+        <item x="55"/>
+        <item x="185"/>
+        <item x="143"/>
+        <item x="51"/>
+        <item x="100"/>
+        <item x="36"/>
+        <item x="247"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -57586,7 +57464,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Não tem Quadro">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Não tem Quadro">
       <formula>NOT(ISERROR(SEARCH("Não tem Quadro",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57615,10 +57493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E983C96-14DD-44D3-BA18-2A436C89CA8B}">
-  <dimension ref="A3:F31"/>
+  <dimension ref="A3:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57694,7 +57572,7 @@
         <v>263990806.00999999</v>
       </c>
       <c r="F6" s="44">
-        <v>-254507294.13</v>
+        <v>-252265418.17999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -57705,7 +57583,9 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="F7" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -57724,7 +57604,7 @@
         <v>41616573.879999995</v>
       </c>
       <c r="F8" s="44">
-        <v>-177512175.41999999</v>
+        <v>-168265203.84999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -57744,7 +57624,7 @@
         <v>180623154.66</v>
       </c>
       <c r="F9" s="44">
-        <v>-5404054.0299999993</v>
+        <v>-362078058.26716059</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -57764,7 +57644,7 @@
         <v>36254784.620000005</v>
       </c>
       <c r="F10" s="44">
-        <v>-100160244.37</v>
+        <v>-97014878.86999999</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -57782,7 +57662,7 @@
         <v>9124124.0300000012</v>
       </c>
       <c r="F11" s="44">
-        <v>-9124124.0300000012</v>
+        <v>-76144563.200000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -57798,7 +57678,7 @@
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44">
-        <v>-29568741</v>
+        <v>-49568741</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -57816,7 +57696,7 @@
         <v>908299265.44999993</v>
       </c>
       <c r="F13" s="44">
-        <v>-908299265.44999993</v>
+        <v>-904872975.86999989</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -57834,7 +57714,7 @@
         <v>313514813.24000001</v>
       </c>
       <c r="F14" s="44">
-        <v>-313514813.24000001</v>
+        <v>-121564611.36</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -57850,7 +57730,7 @@
         <v>19796.93</v>
       </c>
       <c r="F15" s="44">
-        <v>-19796.93</v>
+        <v>7911069.0600000005</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -57868,7 +57748,7 @@
         <v>40219475.570800021</v>
       </c>
       <c r="F16" s="44">
-        <v>-40219475.570800021</v>
+        <v>-41173915.570800021</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -57888,7 +57768,7 @@
         <v>272665178.34999996</v>
       </c>
       <c r="F17" s="44">
-        <v>-272665178.34999996</v>
+        <v>-299481399.81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -57920,7 +57800,7 @@
         <v>486284869.46000004</v>
       </c>
       <c r="F19" s="44">
-        <v>-506738285.46000004</v>
+        <v>-1019143257.8300002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -57931,7 +57811,9 @@
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="F20" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -57947,7 +57829,9 @@
       <c r="E21" s="44">
         <v>88852712</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="44">
+        <v>-183795352.82999998</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -57984,7 +57868,7 @@
         <v>47078025.699999996</v>
       </c>
       <c r="F23" s="44">
-        <v>-47078025.699999996</v>
+        <v>-54205973.629999995</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -58000,7 +57884,7 @@
         <v>1928781.64</v>
       </c>
       <c r="F24" s="44">
-        <v>-170000</v>
+        <v>-3098781.6399999997</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -58011,7 +57895,9 @@
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="F25" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -58023,7 +57909,9 @@
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="F26" s="44">
+        <v>456794062.35000002</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -58040,7 +57928,7 @@
         <v>355401807.63</v>
       </c>
       <c r="F27" s="44">
-        <v>-360255807.63</v>
+        <v>-362530295.44</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -58056,7 +57944,7 @@
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44">
-        <v>0</v>
+        <v>11430611.139999997</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -58076,7 +57964,7 @@
         <v>1300962000</v>
       </c>
       <c r="F29" s="44">
-        <v>-2167076000</v>
+        <v>-10028829000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -58089,7 +57977,9 @@
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
+      <c r="F30" s="44">
+        <v>-185000</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -58108,7 +57998,13 @@
         <v>4722936051.5207996</v>
       </c>
       <c r="F31" s="44">
-        <v>-5568425324.0408001</v>
+        <v>-13924193727.527962</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>GETPIVOTDATA("Soma de Reforço de Capital",$A$3,"Estado","SP")/GETPIVOTDATA("Soma de Reforço de Capital",$A$3)</f>
+        <v>0.80804435577644218</v>
       </c>
     </row>
   </sheetData>
@@ -58121,9 +58017,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P259"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N251" sqref="N251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58189,7 +58085,7 @@
       </c>
       <c r="P1" s="2">
         <f>COUNTIF(N2:N259,0)</f>
-        <v>37</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -58221,7 +58117,7 @@
         <v>8742169.7599999998</v>
       </c>
       <c r="N2" s="36">
-        <f>J2-L2-M2</f>
+        <f>SUM(J2)-SUM(L2,M2)</f>
         <v>-8742169.7599999998</v>
       </c>
     </row>
@@ -58254,7 +58150,7 @@
         <v>1398</v>
       </c>
       <c r="N3" s="36">
-        <f t="shared" ref="N3:N12" si="0">J3-L3-M3</f>
+        <f t="shared" ref="N3:N66" si="0">SUM(J3)-SUM(L3,M3)</f>
         <v>-1398</v>
       </c>
     </row>
@@ -58554,6 +58450,10 @@
       <c r="I13" s="40">
         <v>7543037.3399999999</v>
       </c>
+      <c r="N13" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -58583,6 +58483,10 @@
       <c r="I14" s="40">
         <v>22825000</v>
       </c>
+      <c r="N14" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -58612,6 +58516,10 @@
       <c r="I15" s="40">
         <v>-3372260</v>
       </c>
+      <c r="N15" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -58633,6 +58541,10 @@
         <v>423</v>
       </c>
       <c r="I16" s="40"/>
+      <c r="N16" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -58662,6 +58574,10 @@
       <c r="I17" s="40">
         <v>87201.13</v>
       </c>
+      <c r="N17" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -58695,7 +58611,7 @@
         <v>600000</v>
       </c>
       <c r="N18" s="36">
-        <f t="shared" ref="N18:N20" si="1">J18-L18-M18</f>
+        <f t="shared" si="0"/>
         <v>-21857052.620000001</v>
       </c>
     </row>
@@ -58728,7 +58644,7 @@
         <v>152356690</v>
       </c>
       <c r="N19" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-152356690</v>
       </c>
     </row>
@@ -58761,7 +58677,7 @@
         <v>80293551.510000005</v>
       </c>
       <c r="N20" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-80293551.510000005</v>
       </c>
     </row>
@@ -58793,6 +58709,10 @@
       <c r="J21" s="36">
         <v>12325387.83</v>
       </c>
+      <c r="N21" s="36">
+        <f t="shared" si="0"/>
+        <v>12325387.83</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -58822,6 +58742,10 @@
       <c r="L22" s="36">
         <v>10083511.880000001</v>
       </c>
+      <c r="N22" s="36">
+        <f t="shared" si="0"/>
+        <v>-10083511.880000001</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -58848,6 +58772,10 @@
       <c r="I23" s="40">
         <v>-4966883.4400000004</v>
       </c>
+      <c r="N23" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -58874,6 +58802,10 @@
       <c r="I24" s="40">
         <v>-8707340.7200000007</v>
       </c>
+      <c r="N24" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -58898,6 +58830,10 @@
         <v>423</v>
       </c>
       <c r="I25" s="40"/>
+      <c r="N25" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -58922,6 +58858,10 @@
         <v>423</v>
       </c>
       <c r="I26" s="40"/>
+      <c r="N26" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -58955,7 +58895,7 @@
         <v>135895601.53999999</v>
       </c>
       <c r="N27" s="36">
-        <f t="shared" ref="N27:N32" si="2">J27-L27-M27</f>
+        <f t="shared" si="0"/>
         <v>-135895601.53999999</v>
       </c>
     </row>
@@ -58986,7 +58926,7 @@
         <v>20287129.75</v>
       </c>
       <c r="N28" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-20287129.75</v>
       </c>
     </row>
@@ -59019,7 +58959,7 @@
         <v>21329444.129999999</v>
       </c>
       <c r="N29" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-21329444.129999999</v>
       </c>
     </row>
@@ -59047,7 +58987,7 @@
       </c>
       <c r="I30" s="40"/>
       <c r="N30" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -59075,7 +59015,7 @@
       </c>
       <c r="I31" s="40"/>
       <c r="N31" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -59103,7 +59043,7 @@
       </c>
       <c r="I32" s="40"/>
       <c r="N32" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -59135,6 +59075,10 @@
       <c r="J33" s="36">
         <v>16246971.57</v>
       </c>
+      <c r="N33" s="36">
+        <f t="shared" si="0"/>
+        <v>16246971.57</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -59164,6 +59108,10 @@
       <c r="M34" s="36">
         <v>7000000</v>
       </c>
+      <c r="N34" s="36">
+        <f t="shared" si="0"/>
+        <v>-7000000</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -59188,6 +59136,10 @@
         <v>559285095</v>
       </c>
       <c r="I35" s="40"/>
+      <c r="N35" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -59212,6 +59164,10 @@
         <v>28224926</v>
       </c>
       <c r="I36" s="40"/>
+      <c r="N36" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -59236,6 +59192,10 @@
         <v>63110467</v>
       </c>
       <c r="I37" s="40"/>
+      <c r="N37" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -59260,6 +59220,10 @@
         <v>-89206000</v>
       </c>
       <c r="I38" s="40"/>
+      <c r="N38" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -59290,7 +59254,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="36">
-        <f t="shared" ref="N39:N42" si="3">J39-L39-M39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -59323,7 +59287,7 @@
         <v>37133</v>
       </c>
       <c r="N40" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-37133</v>
       </c>
     </row>
@@ -59359,7 +59323,7 @@
         <v>2999457</v>
       </c>
       <c r="N41" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-2999457</v>
       </c>
     </row>
@@ -59392,7 +59356,7 @@
         <v>2367464.0299999998</v>
       </c>
       <c r="N42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-2367464.0299999998</v>
       </c>
     </row>
@@ -59427,6 +59391,10 @@
       <c r="M43" s="36">
         <v>97240040.4572943</v>
       </c>
+      <c r="N43" s="36">
+        <f t="shared" si="0"/>
+        <v>-14956065.477160603</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -59462,6 +59430,10 @@
       <c r="M44" s="36">
         <v>0</v>
       </c>
+      <c r="N44" s="36">
+        <f t="shared" si="0"/>
+        <v>8015262.5</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -59494,6 +59466,10 @@
       <c r="M45" s="36">
         <v>174514100.63</v>
       </c>
+      <c r="N45" s="36">
+        <f t="shared" si="0"/>
+        <v>-349028201.25999999</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -59520,6 +59496,10 @@
       <c r="I46" s="40">
         <v>48231000</v>
       </c>
+      <c r="N46" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -59549,6 +59529,10 @@
       <c r="L47" s="36">
         <v>705000</v>
       </c>
+      <c r="N47" s="36">
+        <f t="shared" si="0"/>
+        <v>-705000</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -59575,6 +59559,10 @@
       <c r="I48" s="40">
         <v>21260071</v>
       </c>
+      <c r="N48" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -59601,6 +59589,10 @@
       <c r="I49" s="40">
         <v>1758074</v>
       </c>
+      <c r="N49" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -59630,6 +59622,10 @@
       <c r="L50" s="36">
         <v>0</v>
       </c>
+      <c r="N50" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -59663,7 +59659,7 @@
         <v>25620.11</v>
       </c>
       <c r="N51" s="36">
-        <f t="shared" ref="N51:N57" si="4">J51-L51-M51</f>
+        <f t="shared" si="0"/>
         <v>-25620.11</v>
       </c>
     </row>
@@ -59702,7 +59698,7 @@
         <v>31939919.82</v>
       </c>
       <c r="N52" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-43771230.519999996</v>
       </c>
     </row>
@@ -59732,7 +59728,7 @@
         <v>-5552345</v>
       </c>
       <c r="N53" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -59771,7 +59767,7 @@
         <v>31939919.82</v>
       </c>
       <c r="N54" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-56363393.740000002</v>
       </c>
     </row>
@@ -59804,7 +59800,7 @@
         <v>296829.01</v>
       </c>
       <c r="N55" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -59837,7 +59833,7 @@
         <v>4103922.05</v>
       </c>
       <c r="N56" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -59870,7 +59866,7 @@
         <v>3620.67</v>
       </c>
       <c r="N57" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -59898,6 +59894,10 @@
         <f>'[1]Partic. Majoritárias do Estado'!$AG$30</f>
         <v>97455026.060000002</v>
       </c>
+      <c r="N58" s="36">
+        <f t="shared" si="0"/>
+        <v>97455026.060000002</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -59927,6 +59927,10 @@
       <c r="M59" s="36">
         <v>102887047.20999999</v>
       </c>
+      <c r="N59" s="36">
+        <f t="shared" si="0"/>
+        <v>-102887047.20999999</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -59956,6 +59960,10 @@
       <c r="J60" s="36">
         <v>984176.65</v>
       </c>
+      <c r="N60" s="36">
+        <f t="shared" si="0"/>
+        <v>984176.65</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -59985,6 +59993,10 @@
       <c r="J61" s="36">
         <v>7593210</v>
       </c>
+      <c r="N61" s="36">
+        <f t="shared" si="0"/>
+        <v>7593210</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -60011,6 +60023,10 @@
       <c r="I62" s="40">
         <v>352593356</v>
       </c>
+      <c r="N62" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -60037,6 +60053,10 @@
       <c r="I63" s="40">
         <v>0</v>
       </c>
+      <c r="N63" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -60067,7 +60087,7 @@
         <v>7205124.0300000003</v>
       </c>
       <c r="N64" s="36">
-        <f t="shared" ref="N64:N65" si="5">J64-L64-M64</f>
+        <f t="shared" si="0"/>
         <v>-7205124.0300000003</v>
       </c>
     </row>
@@ -60100,7 +60120,7 @@
         <v>1919000</v>
       </c>
       <c r="N65" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>-1919000</v>
       </c>
     </row>
@@ -60132,6 +60152,10 @@
       <c r="J66" s="36">
         <v>53247611.049999997</v>
       </c>
+      <c r="N66" s="36">
+        <f t="shared" si="0"/>
+        <v>53247611.049999997</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -60161,6 +60185,10 @@
       <c r="J67" s="36">
         <v>20151949.780000001</v>
       </c>
+      <c r="N67" s="36">
+        <f t="shared" ref="N67:N130" si="1">SUM(J67)-SUM(L67,M67)</f>
+        <v>20151949.780000001</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -60190,6 +60218,10 @@
       <c r="M68" s="39">
         <v>140420000</v>
       </c>
+      <c r="N68" s="36">
+        <f t="shared" si="1"/>
+        <v>-140420000</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -60216,6 +60248,10 @@
       <c r="I69" s="40">
         <v>-1909150.31</v>
       </c>
+      <c r="N69" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -60246,7 +60282,7 @@
         <v>120266</v>
       </c>
       <c r="N70" s="36">
-        <f t="shared" ref="N70:N74" si="6">J70-L70-M70</f>
+        <f t="shared" si="1"/>
         <v>-120266</v>
       </c>
     </row>
@@ -60279,7 +60315,7 @@
         <v>292463</v>
       </c>
       <c r="N71" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-292463</v>
       </c>
     </row>
@@ -60312,7 +60348,7 @@
         <v>2650000</v>
       </c>
       <c r="N72" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-2650000</v>
       </c>
     </row>
@@ -60345,7 +60381,7 @@
         <v>487363</v>
       </c>
       <c r="N73" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-487363</v>
       </c>
     </row>
@@ -60378,7 +60414,7 @@
         <v>26018649</v>
       </c>
       <c r="N74" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-26018649</v>
       </c>
     </row>
@@ -60410,6 +60446,10 @@
       <c r="M75" s="36">
         <v>20000000</v>
       </c>
+      <c r="N75" s="36">
+        <f t="shared" si="1"/>
+        <v>-20000000</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -60439,6 +60479,10 @@
       <c r="K76" s="36">
         <v>17624</v>
       </c>
+      <c r="N76" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -60465,6 +60509,10 @@
       <c r="I77" s="40">
         <v>-925276</v>
       </c>
+      <c r="N77" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -60491,6 +60539,10 @@
       <c r="I78" s="40">
         <v>62506</v>
       </c>
+      <c r="N78" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -60517,6 +60569,10 @@
       <c r="I79" s="40">
         <v>-4690534</v>
       </c>
+      <c r="N79" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -60543,6 +60599,10 @@
       <c r="I80" s="40">
         <v>6976696</v>
       </c>
+      <c r="N80" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -60569,6 +60629,10 @@
       <c r="I81" s="40">
         <v>-465000</v>
       </c>
+      <c r="N81" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -60595,6 +60659,10 @@
       <c r="I82" s="40">
         <v>2789741</v>
       </c>
+      <c r="N82" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -60621,6 +60689,10 @@
       <c r="I83" s="40">
         <v>-9694727</v>
       </c>
+      <c r="N83" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -60647,6 +60719,10 @@
       <c r="I84" s="40">
         <v>-32754</v>
       </c>
+      <c r="N84" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -60673,6 +60749,10 @@
       <c r="I85" s="40">
         <v>115762000</v>
       </c>
+      <c r="N85" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -60703,7 +60783,7 @@
         <v>65741109.520000003</v>
       </c>
       <c r="N86" s="36">
-        <f t="shared" ref="N86:N87" si="7">J86-L86-M86</f>
+        <f t="shared" si="1"/>
         <v>-65741109.520000003</v>
       </c>
     </row>
@@ -60736,7 +60816,7 @@
         <v>842558155.92999995</v>
       </c>
       <c r="N87" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>-842558155.92999995</v>
       </c>
     </row>
@@ -60768,6 +60848,10 @@
       <c r="M88" s="36">
         <v>350523</v>
       </c>
+      <c r="N88" s="36">
+        <f t="shared" si="1"/>
+        <v>-350523</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -60797,6 +60881,10 @@
       <c r="M89" s="36">
         <v>277125</v>
       </c>
+      <c r="N89" s="36">
+        <f t="shared" si="1"/>
+        <v>-277125</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -60826,6 +60914,10 @@
       <c r="J90" s="36">
         <v>4053937.58</v>
       </c>
+      <c r="N90" s="36">
+        <f t="shared" si="1"/>
+        <v>4053937.58</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -60856,7 +60948,7 @@
         <v>209555011.56</v>
       </c>
       <c r="N91" s="36">
-        <f t="shared" ref="N91:N93" si="8">J91-L91-M91</f>
+        <f t="shared" si="1"/>
         <v>-209555011.56</v>
       </c>
     </row>
@@ -60889,7 +60981,7 @@
         <v>95032773.310000002</v>
       </c>
       <c r="N92" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>-95032773.310000002</v>
       </c>
     </row>
@@ -60922,7 +61014,7 @@
         <v>8927028.3699999992</v>
       </c>
       <c r="N93" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>-8927028.3699999992</v>
       </c>
     </row>
@@ -60957,6 +61049,10 @@
       <c r="M94" s="36">
         <v>25097423.039999999</v>
       </c>
+      <c r="N94" s="36">
+        <f t="shared" si="1"/>
+        <v>-25097423.039999999</v>
+      </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -60989,6 +61085,10 @@
       <c r="M95" s="36">
         <v>0</v>
       </c>
+      <c r="N95" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -61021,6 +61121,10 @@
       <c r="M96" s="36">
         <v>0</v>
       </c>
+      <c r="N96" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -61053,6 +61157,10 @@
       <c r="M97" s="36">
         <v>367709020.64999998</v>
       </c>
+      <c r="N97" s="36">
+        <f t="shared" si="1"/>
+        <v>34345276.280000031</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -61085,6 +61193,10 @@
       <c r="M98" s="36">
         <v>3833474.74</v>
       </c>
+      <c r="N98" s="36">
+        <f t="shared" si="1"/>
+        <v>-3833474.74</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -61117,6 +61229,10 @@
       <c r="M99" s="36">
         <v>0</v>
       </c>
+      <c r="N99" s="36">
+        <f t="shared" si="1"/>
+        <v>259439303.78</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -61149,6 +61265,10 @@
       <c r="M100" s="36">
         <v>0</v>
       </c>
+      <c r="N100" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -61181,6 +61301,10 @@
       <c r="M101" s="36">
         <v>20312409.829999998</v>
       </c>
+      <c r="N101" s="36">
+        <f t="shared" si="1"/>
+        <v>-20312409.829999998</v>
+      </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -61213,6 +61337,10 @@
       <c r="M102" s="36">
         <v>0</v>
       </c>
+      <c r="N102" s="36">
+        <f t="shared" si="1"/>
+        <v>7596759.1500000004</v>
+      </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -61245,6 +61373,10 @@
       <c r="M103" s="36">
         <v>0</v>
       </c>
+      <c r="N103" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -61277,6 +61409,10 @@
       <c r="M104" s="36">
         <v>0</v>
       </c>
+      <c r="N104" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -61309,6 +61445,10 @@
       <c r="M105" s="36">
         <v>0</v>
       </c>
+      <c r="N105" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -61341,6 +61481,10 @@
       <c r="M106" s="36">
         <v>60960783.700000003</v>
       </c>
+      <c r="N106" s="36">
+        <f t="shared" si="1"/>
+        <v>-60960783.700000003</v>
+      </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -61373,6 +61517,10 @@
       <c r="M107" s="36">
         <v>0</v>
       </c>
+      <c r="N107" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -61405,6 +61553,10 @@
       <c r="M108" s="36">
         <v>0</v>
       </c>
+      <c r="N108" s="36">
+        <f t="shared" si="1"/>
+        <v>950645.98</v>
+      </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -61437,6 +61589,10 @@
       <c r="M109" s="36">
         <v>177692</v>
       </c>
+      <c r="N109" s="36">
+        <f t="shared" si="1"/>
+        <v>-177692</v>
+      </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -61464,7 +61620,7 @@
         <v>0</v>
       </c>
       <c r="N110" s="36">
-        <f t="shared" ref="N110:N111" si="9">J110-L110-M110</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61497,7 +61653,7 @@
         <v>19796.93</v>
       </c>
       <c r="N111" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>-19796.93</v>
       </c>
     </row>
@@ -61529,6 +61685,10 @@
       <c r="J112" s="36">
         <v>33254.46</v>
       </c>
+      <c r="N112" s="36">
+        <f t="shared" si="1"/>
+        <v>33254.46</v>
+      </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -61558,6 +61718,10 @@
       <c r="J113" s="36">
         <v>7897611.5300000003</v>
       </c>
+      <c r="N113" s="36">
+        <f t="shared" si="1"/>
+        <v>7897611.5300000003</v>
+      </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -61584,6 +61748,10 @@
       <c r="I114" s="40">
         <v>389670.45</v>
       </c>
+      <c r="N114" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
@@ -61611,7 +61779,7 @@
         <v>-1255376</v>
       </c>
       <c r="N115" s="36">
-        <f t="shared" ref="N115:N120" si="10">J115-L115-M115</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61641,7 +61809,7 @@
         <v>-2724744.58</v>
       </c>
       <c r="N116" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61674,7 +61842,7 @@
         <v>4145623.09</v>
       </c>
       <c r="N117" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-4145623.09</v>
       </c>
     </row>
@@ -61707,7 +61875,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61740,7 +61908,7 @@
         <v>14541744.480800018</v>
       </c>
       <c r="N119" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-14541744.480800018</v>
       </c>
     </row>
@@ -61776,7 +61944,7 @@
         <v>21532108</v>
       </c>
       <c r="N120" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-21532108</v>
       </c>
     </row>
@@ -61808,6 +61976,10 @@
       <c r="M121" s="36">
         <v>954440</v>
       </c>
+      <c r="N121" s="36">
+        <f t="shared" si="1"/>
+        <v>-954440</v>
+      </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
@@ -61836,7 +62008,7 @@
         <v>-282405.63</v>
       </c>
       <c r="N122" s="36">
-        <f>J122-L122-M122</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61868,6 +62040,10 @@
       <c r="J123" s="36">
         <v>123301078.59999999</v>
       </c>
+      <c r="N123" s="36">
+        <f t="shared" si="1"/>
+        <v>123301078.59999999</v>
+      </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
@@ -61901,7 +62077,7 @@
         <v>9326086.9299999997</v>
       </c>
       <c r="N124" s="36">
-        <f t="shared" ref="N124:N127" si="11">J124-L124-M124</f>
+        <f t="shared" si="1"/>
         <v>-9326086.9299999997</v>
       </c>
     </row>
@@ -61937,7 +62113,7 @@
         <v>12611295.779999999</v>
       </c>
       <c r="N125" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-12611295.779999999</v>
       </c>
     </row>
@@ -61973,7 +62149,7 @@
         <v>4237079.03</v>
       </c>
       <c r="N126" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-4237079.03</v>
       </c>
     </row>
@@ -62009,7 +62185,7 @@
         <v>72347464.170000002</v>
       </c>
       <c r="N127" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-72347464.170000002</v>
       </c>
     </row>
@@ -62044,6 +62220,10 @@
       <c r="M128" s="36">
         <v>150117300.06</v>
       </c>
+      <c r="N128" s="36">
+        <f t="shared" si="1"/>
+        <v>-150117300.06</v>
+      </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
@@ -62077,7 +62257,7 @@
         <v>120279589.23999999</v>
       </c>
       <c r="N129" s="36">
-        <f t="shared" ref="N129:N136" si="12">J129-L129-M129</f>
+        <f t="shared" si="1"/>
         <v>-120279589.23999999</v>
       </c>
     </row>
@@ -62111,7 +62291,7 @@
       <c r="L130" s="36"/>
       <c r="M130" s="36"/>
       <c r="N130" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -62147,7 +62327,7 @@
       </c>
       <c r="M131" s="36"/>
       <c r="N131" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N131:N194" si="2">SUM(J131)-SUM(L131,M131)</f>
         <v>-53863663.200000003</v>
       </c>
     </row>
@@ -62180,7 +62360,7 @@
         <v>-34661556.659999996</v>
       </c>
       <c r="N132" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62213,7 +62393,7 @@
         <v>-256978.77</v>
       </c>
       <c r="N133" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62241,7 +62421,7 @@
       </c>
       <c r="I134" s="40"/>
       <c r="N134" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62274,7 +62454,7 @@
         <v>2883680.63</v>
       </c>
       <c r="N135" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62307,7 +62487,7 @@
         <v>-2256835.25</v>
       </c>
       <c r="N136" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62339,6 +62519,10 @@
       <c r="I137" s="42">
         <v>2564198.79</v>
       </c>
+      <c r="N137" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
@@ -62369,7 +62553,7 @@
         <v>11236000</v>
       </c>
       <c r="N138" s="36">
-        <f>J138-L138-M138</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62401,6 +62585,10 @@
       <c r="I139" s="40">
         <v>425374.14</v>
       </c>
+      <c r="N139" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
@@ -62430,6 +62618,10 @@
       <c r="I140" s="40">
         <v>109838000</v>
       </c>
+      <c r="N140" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -62463,7 +62655,7 @@
         <v>54479571.460000001</v>
       </c>
       <c r="N141" s="36">
-        <f t="shared" ref="N141:N147" si="13">J141-L141-M141</f>
+        <f t="shared" si="2"/>
         <v>-54479571.460000001</v>
       </c>
     </row>
@@ -62499,7 +62691,7 @@
         <v>166248003</v>
       </c>
       <c r="N142" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-166248003</v>
       </c>
     </row>
@@ -62535,7 +62727,7 @@
         <v>4600054</v>
       </c>
       <c r="N143" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-4600054</v>
       </c>
     </row>
@@ -62571,7 +62763,7 @@
         <v>96473246</v>
       </c>
       <c r="N144" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-96473246</v>
       </c>
     </row>
@@ -62607,7 +62799,7 @@
         <v>73291133</v>
       </c>
       <c r="N145" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-73291133</v>
       </c>
     </row>
@@ -62643,7 +62835,7 @@
         <v>2386838</v>
       </c>
       <c r="N146" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-2386838</v>
       </c>
     </row>
@@ -62682,7 +62874,7 @@
         <v>20453416</v>
       </c>
       <c r="N147" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-109259440</v>
       </c>
     </row>
@@ -62714,6 +62906,10 @@
       <c r="M148" s="36" t="s">
         <v>125</v>
       </c>
+      <c r="N148" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -62743,6 +62939,10 @@
       <c r="M149" s="36" t="s">
         <v>125</v>
       </c>
+      <c r="N149" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -62772,6 +62972,10 @@
       <c r="M150" s="36">
         <v>513906733.42000002</v>
       </c>
+      <c r="N150" s="36">
+        <f t="shared" si="2"/>
+        <v>-513906733.42000002</v>
+      </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -62801,6 +63005,10 @@
       <c r="M151" s="36" t="s">
         <v>125</v>
       </c>
+      <c r="N151" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -62830,6 +63038,10 @@
       <c r="M152" s="36">
         <v>3170000</v>
       </c>
+      <c r="N152" s="36">
+        <f t="shared" si="2"/>
+        <v>-3170000</v>
+      </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -62859,6 +63071,10 @@
       <c r="M153" s="36" t="s">
         <v>125</v>
       </c>
+      <c r="N153" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -62891,6 +63107,10 @@
       <c r="M154" s="36">
         <v>2362872.48</v>
       </c>
+      <c r="N154" s="36">
+        <f t="shared" si="2"/>
+        <v>7121761.0499999989</v>
+      </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -62920,6 +63140,10 @@
       <c r="M155" s="36">
         <v>2450000</v>
       </c>
+      <c r="N155" s="36">
+        <f t="shared" si="2"/>
+        <v>-2450000</v>
+      </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
@@ -62944,6 +63168,10 @@
         <v>423</v>
       </c>
       <c r="I156" s="40"/>
+      <c r="N156" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
@@ -62973,6 +63201,10 @@
       <c r="I157" s="40">
         <v>-70626000</v>
       </c>
+      <c r="N157" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
@@ -62997,6 +63229,10 @@
         <v>423</v>
       </c>
       <c r="I158" s="40"/>
+      <c r="N158" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
@@ -63026,6 +63262,10 @@
       <c r="I159" s="40">
         <v>-1680</v>
       </c>
+      <c r="N159" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
@@ -63050,6 +63290,10 @@
         <v>423</v>
       </c>
       <c r="I160" s="40"/>
+      <c r="N160" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
@@ -63074,6 +63318,10 @@
         <v>423</v>
       </c>
       <c r="I161" s="40"/>
+      <c r="N161" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
@@ -63098,6 +63346,10 @@
         <v>423</v>
       </c>
       <c r="I162" s="40"/>
+      <c r="N162" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
@@ -63122,6 +63374,10 @@
         <v>423</v>
       </c>
       <c r="I163" s="40"/>
+      <c r="N163" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
@@ -63146,6 +63402,10 @@
         <v>423</v>
       </c>
       <c r="I164" s="40"/>
+      <c r="N164" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -63181,6 +63441,10 @@
       <c r="M165" s="36">
         <v>0</v>
       </c>
+      <c r="N165" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -63210,6 +63474,10 @@
       <c r="J166" s="36">
         <v>79597</v>
       </c>
+      <c r="N166" s="36">
+        <f t="shared" si="2"/>
+        <v>79597</v>
+      </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
@@ -63245,6 +63513,10 @@
       <c r="M167" s="36">
         <v>0</v>
       </c>
+      <c r="N167" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -63280,6 +63552,10 @@
       <c r="M168" s="36">
         <v>0</v>
       </c>
+      <c r="N168" s="36">
+        <f t="shared" si="2"/>
+        <v>2078756.2000000002</v>
+      </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
@@ -63309,6 +63585,10 @@
       <c r="M169" s="36">
         <v>8000000</v>
       </c>
+      <c r="N169" s="36">
+        <f t="shared" si="2"/>
+        <v>-8000000</v>
+      </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -63338,6 +63618,10 @@
       <c r="J170" s="36">
         <v>112195550.97</v>
       </c>
+      <c r="N170" s="36">
+        <f t="shared" si="2"/>
+        <v>112195550.97</v>
+      </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -63364,6 +63648,10 @@
       <c r="I171" s="40">
         <v>3428478</v>
       </c>
+      <c r="N171" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -63393,6 +63681,10 @@
       <c r="L172" s="36">
         <v>0</v>
       </c>
+      <c r="N172" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -63425,6 +63717,10 @@
       <c r="M173" s="36">
         <v>122887545</v>
       </c>
+      <c r="N173" s="36">
+        <f t="shared" si="2"/>
+        <v>-211740257</v>
+      </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -63454,6 +63750,10 @@
       <c r="M174" s="36">
         <v>78409000</v>
       </c>
+      <c r="N174" s="36">
+        <f t="shared" si="2"/>
+        <v>-78409000</v>
+      </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -63490,7 +63790,7 @@
         <v>0</v>
       </c>
       <c r="N175" s="36">
-        <f t="shared" ref="N175:N190" si="14">J175-L175-M175</f>
+        <f t="shared" si="2"/>
         <v>-118471548</v>
       </c>
     </row>
@@ -63523,7 +63823,7 @@
         <v>12098120</v>
       </c>
       <c r="N176" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-12098120</v>
       </c>
     </row>
@@ -63559,7 +63859,7 @@
         <v>37636867.840000004</v>
       </c>
       <c r="N177" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-37636867.840000004</v>
       </c>
     </row>
@@ -63598,7 +63898,7 @@
         <v>0</v>
       </c>
       <c r="N178" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-88363972.459999993</v>
       </c>
     </row>
@@ -63637,7 +63937,7 @@
         <v>12160.38</v>
       </c>
       <c r="N179" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-20473170.239999998</v>
       </c>
     </row>
@@ -63673,7 +63973,7 @@
         <v>61586954.340000004</v>
       </c>
       <c r="N180" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-61586954.340000004</v>
       </c>
     </row>
@@ -63703,7 +64003,7 @@
         <v>-22327773</v>
       </c>
       <c r="N181" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63736,7 +64036,7 @@
         <v>4721472.8</v>
       </c>
       <c r="N182" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-4721472.8</v>
       </c>
     </row>
@@ -63772,7 +64072,7 @@
         <v>14186004.449999999</v>
       </c>
       <c r="N183" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-14186004.449999999</v>
       </c>
     </row>
@@ -63805,7 +64105,7 @@
         <v>536601.81000000006</v>
       </c>
       <c r="N184" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63838,7 +64138,10 @@
       <c r="K185" s="36"/>
       <c r="L185" s="36"/>
       <c r="M185" s="36"/>
-      <c r="N185" s="36"/>
+      <c r="N185" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -63863,7 +64166,7 @@
         <v>14453926</v>
       </c>
       <c r="N186" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63896,7 +64199,7 @@
         <v>14137577</v>
       </c>
       <c r="N187" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-14137577</v>
       </c>
     </row>
@@ -63929,7 +64232,7 @@
         <v>8620345.8699999992</v>
       </c>
       <c r="N188" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-8620345.8699999992</v>
       </c>
     </row>
@@ -63965,7 +64268,7 @@
         <v>4287481.88</v>
       </c>
       <c r="N189" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-4287481.88</v>
       </c>
     </row>
@@ -63998,7 +64301,7 @@
         <v>20032620.949999999</v>
       </c>
       <c r="N190" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-20032620.949999999</v>
       </c>
     </row>
@@ -64030,6 +64333,10 @@
       <c r="M191" s="36">
         <v>9975363.9799999986</v>
       </c>
+      <c r="N191" s="36">
+        <f t="shared" si="2"/>
+        <v>-9975363.9799999986</v>
+      </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -64056,6 +64363,10 @@
       <c r="I192" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="N192" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -64085,6 +64396,10 @@
       <c r="J193" s="36">
         <v>2847416.05</v>
       </c>
+      <c r="N193" s="36">
+        <f t="shared" si="2"/>
+        <v>2847416.05</v>
+      </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -64111,6 +64426,10 @@
       <c r="I194" s="40">
         <v>2016817</v>
       </c>
+      <c r="N194" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
@@ -64141,7 +64460,7 @@
         <v>170000</v>
       </c>
       <c r="N195" s="36">
-        <f>J195-L195-M195</f>
+        <f t="shared" ref="N195:N258" si="3">SUM(J195)-SUM(L195,M195)</f>
         <v>-170000</v>
       </c>
     </row>
@@ -64168,6 +64487,10 @@
         <v>162631832.69</v>
       </c>
       <c r="I196" s="40"/>
+      <c r="N196" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
@@ -64197,6 +64520,10 @@
       <c r="L197" s="36">
         <v>1928781.64</v>
       </c>
+      <c r="N197" s="36">
+        <f t="shared" si="3"/>
+        <v>-1928781.64</v>
+      </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
@@ -64226,6 +64553,10 @@
       <c r="M198" s="36">
         <v>1000000</v>
       </c>
+      <c r="N198" s="36">
+        <f t="shared" si="3"/>
+        <v>-1000000</v>
+      </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -64252,6 +64583,10 @@
       <c r="I199" s="40">
         <v>2657222.3199999998</v>
       </c>
+      <c r="N199" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -64278,6 +64613,10 @@
       <c r="I200" s="40">
         <v>-77594000</v>
       </c>
+      <c r="N200" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
@@ -64299,6 +64638,10 @@
         <v>423</v>
       </c>
       <c r="I201" s="40"/>
+      <c r="N201" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
@@ -64331,7 +64674,10 @@
       <c r="K202" s="36"/>
       <c r="L202" s="36"/>
       <c r="M202" s="36"/>
-      <c r="N202" s="36"/>
+      <c r="N202" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
@@ -64364,7 +64710,10 @@
       <c r="K203" s="36"/>
       <c r="L203" s="36"/>
       <c r="M203" s="36"/>
-      <c r="N203" s="36"/>
+      <c r="N203" s="36">
+        <f t="shared" si="3"/>
+        <v>37410062.350000001</v>
+      </c>
     </row>
     <row r="204" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
@@ -64397,7 +64746,10 @@
       <c r="K204" s="36"/>
       <c r="L204" s="36"/>
       <c r="M204" s="36"/>
-      <c r="N204" s="36"/>
+      <c r="N204" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
@@ -64430,7 +64782,10 @@
       <c r="K205" s="36"/>
       <c r="L205" s="36"/>
       <c r="M205" s="36"/>
-      <c r="N205" s="36"/>
+      <c r="N205" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
@@ -64463,7 +64818,10 @@
       <c r="K206" s="36"/>
       <c r="L206" s="36"/>
       <c r="M206" s="36"/>
-      <c r="N206" s="36"/>
+      <c r="N206" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
@@ -64496,7 +64854,10 @@
       <c r="K207" s="36"/>
       <c r="L207" s="36"/>
       <c r="M207" s="36"/>
-      <c r="N207" s="36"/>
+      <c r="N207" s="36">
+        <f t="shared" si="3"/>
+        <v>152375000</v>
+      </c>
     </row>
     <row r="208" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
@@ -64529,7 +64890,10 @@
       <c r="K208" s="36"/>
       <c r="L208" s="36"/>
       <c r="M208" s="36"/>
-      <c r="N208" s="36"/>
+      <c r="N208" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
@@ -64562,7 +64926,10 @@
       <c r="K209" s="36"/>
       <c r="L209" s="36"/>
       <c r="M209" s="36"/>
-      <c r="N209" s="36"/>
+      <c r="N209" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
@@ -64589,7 +64956,10 @@
       <c r="K210" s="36"/>
       <c r="L210" s="36"/>
       <c r="M210" s="36"/>
-      <c r="N210" s="36"/>
+      <c r="N210" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:14" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A211" s="9" t="s">
@@ -64622,7 +64992,10 @@
       <c r="K211" s="36"/>
       <c r="L211" s="36"/>
       <c r="M211" s="36"/>
-      <c r="N211" s="36"/>
+      <c r="N211" s="36">
+        <f t="shared" si="3"/>
+        <v>267009000</v>
+      </c>
     </row>
     <row r="212" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
@@ -64655,7 +65028,10 @@
       <c r="K212" s="36"/>
       <c r="L212" s="36"/>
       <c r="M212" s="36"/>
-      <c r="N212" s="36"/>
+      <c r="N212" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -64686,7 +65062,7 @@
         <v>8447006.4199999999</v>
       </c>
       <c r="N213" s="36">
-        <f t="shared" ref="N213:N216" si="15">J213-L213-M213</f>
+        <f t="shared" si="3"/>
         <v>-8447006.4199999999</v>
       </c>
     </row>
@@ -64716,7 +65092,7 @@
         <v>-2279008.2000000002</v>
       </c>
       <c r="N214" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -64749,7 +65125,7 @@
         <v>13376238.9</v>
       </c>
       <c r="N215" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>-13376238.9</v>
       </c>
     </row>
@@ -64785,7 +65161,7 @@
         <v>4854000</v>
       </c>
       <c r="N216" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>-338432562.31</v>
       </c>
     </row>
@@ -64820,6 +65196,10 @@
       <c r="M217" s="36">
         <v>7293811.54</v>
       </c>
+      <c r="N217" s="36">
+        <f t="shared" si="3"/>
+        <v>-7293811.54</v>
+      </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
@@ -64849,6 +65229,10 @@
       <c r="J218" s="36">
         <v>2274039.61</v>
       </c>
+      <c r="N218" s="36">
+        <f t="shared" si="3"/>
+        <v>2274039.61</v>
+      </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -64878,6 +65262,10 @@
       <c r="J219" s="36">
         <v>3611629.72</v>
       </c>
+      <c r="N219" s="36">
+        <f t="shared" si="3"/>
+        <v>3611629.72</v>
+      </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
@@ -64904,6 +65292,10 @@
       <c r="I220" s="40">
         <v>-163349199.52000001</v>
       </c>
+      <c r="N220" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -64933,6 +65325,10 @@
       <c r="J221" s="36">
         <v>0</v>
       </c>
+      <c r="N221" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -64965,6 +65361,10 @@
       <c r="M222" s="36">
         <v>866345.6</v>
       </c>
+      <c r="N222" s="36">
+        <f t="shared" si="3"/>
+        <v>-866345.6</v>
+      </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -64994,6 +65394,10 @@
       <c r="J223" s="36">
         <v>0</v>
       </c>
+      <c r="N223" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
@@ -65020,6 +65424,10 @@
       <c r="I224" s="40">
         <v>-234560.88</v>
       </c>
+      <c r="N224" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
@@ -65046,6 +65454,10 @@
       <c r="I225" s="40">
         <v>-22930382.550000001</v>
       </c>
+      <c r="N225" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
@@ -65073,7 +65485,7 @@
         <v>-10469402.210000001</v>
       </c>
       <c r="N226" s="36">
-        <f t="shared" ref="N226:N232" si="16">J226-L226-M226</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -65103,7 +65515,7 @@
         <v>-58086815.270000003</v>
       </c>
       <c r="N227" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -65133,7 +65545,7 @@
         <v>-718740</v>
       </c>
       <c r="N228" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -65163,7 +65575,7 @@
         <v>-8653695</v>
       </c>
       <c r="N229" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -65193,7 +65605,7 @@
         <v>-554574.31999999995</v>
       </c>
       <c r="N230" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -65223,7 +65635,7 @@
         <v>-16085495.65</v>
       </c>
       <c r="N231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -65253,7 +65665,7 @@
         <v>-98119.26</v>
       </c>
       <c r="N232" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -65285,6 +65697,10 @@
       <c r="J233" s="36">
         <v>254390.34</v>
       </c>
+      <c r="N233" s="36">
+        <f t="shared" si="3"/>
+        <v>254390.34</v>
+      </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -65314,6 +65730,10 @@
       <c r="M234" s="36">
         <v>11447648</v>
       </c>
+      <c r="N234" s="36">
+        <f t="shared" si="3"/>
+        <v>-11447648</v>
+      </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -65340,6 +65760,10 @@
       <c r="I235" s="40">
         <v>-918653.23</v>
       </c>
+      <c r="N235" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
@@ -65369,6 +65793,10 @@
       <c r="J236" s="36">
         <v>22623868.799999997</v>
       </c>
+      <c r="N236" s="36">
+        <f t="shared" si="3"/>
+        <v>22623868.799999997</v>
+      </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
@@ -65408,7 +65836,7 @@
         <v>407000</v>
       </c>
       <c r="N237" s="36">
-        <f t="shared" ref="N237:N242" si="17">J237-L237-M237</f>
+        <f t="shared" si="3"/>
         <v>-167030000</v>
       </c>
     </row>
@@ -65450,7 +65878,7 @@
         <v>0</v>
       </c>
       <c r="N238" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-16758000</v>
       </c>
     </row>
@@ -65492,7 +65920,7 @@
         <v>0</v>
       </c>
       <c r="N239" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-28582000</v>
       </c>
     </row>
@@ -65534,7 +65962,7 @@
         <v>0</v>
       </c>
       <c r="N240" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-40347000</v>
       </c>
     </row>
@@ -65576,7 +66004,7 @@
         <v>51000</v>
       </c>
       <c r="N241" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-89815000</v>
       </c>
     </row>
@@ -65618,7 +66046,7 @@
         <v>865656000</v>
       </c>
       <c r="N242" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-1824544000</v>
       </c>
     </row>
@@ -65659,6 +66087,10 @@
       <c r="M243" s="36">
         <v>5000000000</v>
       </c>
+      <c r="N243" s="36">
+        <f t="shared" si="3"/>
+        <v>-4646239000</v>
+      </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
@@ -65697,6 +66129,10 @@
       <c r="M244" s="36">
         <v>10424000</v>
       </c>
+      <c r="N244" s="36">
+        <f t="shared" si="3"/>
+        <v>5015000</v>
+      </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
@@ -65735,6 +66171,10 @@
       <c r="M245" s="36">
         <v>0</v>
       </c>
+      <c r="N245" s="36">
+        <f t="shared" si="3"/>
+        <v>1428000</v>
+      </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
@@ -65773,6 +66213,10 @@
       <c r="M246" s="36">
         <v>2055429000</v>
       </c>
+      <c r="N246" s="36">
+        <f t="shared" si="3"/>
+        <v>-2055429000</v>
+      </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
@@ -65811,6 +66255,10 @@
       <c r="M247" s="36">
         <v>0</v>
       </c>
+      <c r="N247" s="36">
+        <f t="shared" si="3"/>
+        <v>5748000</v>
+      </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
@@ -65849,6 +66297,10 @@
       <c r="M248" s="36">
         <v>347000000</v>
       </c>
+      <c r="N248" s="36">
+        <f t="shared" si="3"/>
+        <v>-347000000</v>
+      </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
@@ -65887,6 +66339,10 @@
       <c r="M249" s="36">
         <v>186488000</v>
       </c>
+      <c r="N249" s="36">
+        <f t="shared" si="3"/>
+        <v>-186488000</v>
+      </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
@@ -65925,6 +66381,10 @@
       <c r="M250" s="36">
         <v>0</v>
       </c>
+      <c r="N250" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
@@ -65963,6 +66423,10 @@
       <c r="M251" s="36">
         <v>611250000</v>
       </c>
+      <c r="N251" s="36">
+        <f t="shared" si="3"/>
+        <v>-611250000</v>
+      </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
@@ -66001,6 +66465,10 @@
       <c r="M252" s="36">
         <v>0</v>
       </c>
+      <c r="N252" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
@@ -66039,6 +66507,10 @@
       <c r="M253" s="36">
         <v>8137000</v>
       </c>
+      <c r="N253" s="36">
+        <f t="shared" si="3"/>
+        <v>2519000</v>
+      </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
@@ -66077,6 +66549,10 @@
       <c r="M254" s="36">
         <v>65128000</v>
       </c>
+      <c r="N254" s="36">
+        <f t="shared" si="3"/>
+        <v>-33664000</v>
+      </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
@@ -66115,6 +66591,10 @@
       <c r="M255" s="36">
         <v>0</v>
       </c>
+      <c r="N255" s="36">
+        <f t="shared" si="3"/>
+        <v>69429000</v>
+      </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
@@ -66153,8 +66633,12 @@
       <c r="M256" s="36">
         <v>65822000</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" s="36">
+        <f t="shared" si="3"/>
+        <v>-65822000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>193</v>
       </c>
@@ -66179,8 +66663,12 @@
       <c r="I257" s="40">
         <v>-2971679.58</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N257" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>193</v>
       </c>
@@ -66205,8 +66693,12 @@
       <c r="I258" s="40">
         <v>490802.29</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>193</v>
       </c>
@@ -66234,26 +66726,30 @@
       <c r="M259" s="36">
         <v>185000</v>
       </c>
+      <c r="N259" s="36">
+        <f t="shared" ref="N259" si="4">SUM(J259)-SUM(L259,M259)</f>
+        <v>-185000</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:D31 B32:C32 B33:D1048576">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Não tem Quadro">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Não tem Quadro">
       <formula>NOT(ISERROR(SEARCH("Não tem Quadro",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:D185">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Não tem Quadro">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Não tem Quadro">
       <formula>NOT(ISERROR(SEARCH("Não tem Quadro",B185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B223">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="SANEAMENTO">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="SANEAMENTO">
       <formula>NOT(ISERROR(SEARCH("SANEAMENTO",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Esgoto">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Esgoto">
       <formula>NOT(ISERROR(SEARCH("Esgoto",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="água">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="água">
       <formula>NOT(ISERROR(SEARCH("água",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
